--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BC44A3-174E-AD4E-87E9-9E270A0AB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD881F-7981-B446-AADC-7F586EF57231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IRIS" sheetId="1" r:id="rId1"/>
+    <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>Função de treino</t>
   </si>
@@ -130,13 +130,168 @@
   </si>
   <si>
     <t>10, 10, 10</t>
+  </si>
+  <si>
+    <t>compet, elliotsig</t>
+  </si>
+  <si>
+    <t>elliotsig, compet</t>
+  </si>
+  <si>
+    <t>hardlim, hardlims</t>
+  </si>
+  <si>
+    <t>hardlims, hardlim</t>
+  </si>
+  <si>
+    <t>dividerand = {0.80, 0.10, 0.10}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.50, 0.25, 0.25}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.60, 0.20, 0.20}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.40, 0.30, 0.30}</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>treino = test (c)</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Tempo de execução muito elevado.
+Baixa performance (medias de 0.04).</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>71.43</t>
+  </si>
+  <si>
+    <t>66.95</t>
+  </si>
+  <si>
+    <t>Valores Médios após 10 Execuções (Pasta 'train': Cada dígito contém 50 elementos)</t>
+  </si>
+  <si>
+    <t>Tempo de execução mais baixo relativamente a apenas 1 camada com 10 neuronios.
+Performance mais alta comparado com o teste anterior (medias de 0.06).</t>
+  </si>
+  <si>
+    <t>41.94</t>
+  </si>
+  <si>
+    <t>37.14</t>
+  </si>
+  <si>
+    <t>70.43</t>
+  </si>
+  <si>
+    <t>69.52</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>49.14</t>
+  </si>
+  <si>
+    <t>79.94</t>
+  </si>
+  <si>
+    <t>75.90</t>
+  </si>
+  <si>
+    <t>31.74</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>Performance muito boa em questão do tempo de execução. 
+Muito rápido, porém resultados muito fracos.</t>
+  </si>
+  <si>
+    <t>Performance muito fraca (lenta) e resultados muito fracos.</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>Tempo de execução mais rápido, porém influenciou na precisão obtendo valores baixos apesar do numero de camadas escondidas e neuronios.</t>
+  </si>
+  <si>
+    <t>Tempo de execução lento porém os resultados foram mais certeiros através do aumento de neuronios em duas das camadas.</t>
+  </si>
+  <si>
+    <t>Tempo de execução mais lento relativamente ao teste anterior, porém os resultados são melhores devido ao aumento de neuronios.
+Performance com médias de 0.04</t>
+  </si>
+  <si>
+    <t>Extremamente lenta e com uma taxa de acerto muito baixa.</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Perfomance lenta (0.02 a 0.03), porém bons resultados de precisão.</t>
+  </si>
+  <si>
+    <t>84.9</t>
+  </si>
+  <si>
+    <t>82.3</t>
+  </si>
+  <si>
+    <t>12.81</t>
+  </si>
+  <si>
+    <t>13.42</t>
+  </si>
+  <si>
+    <t>Performance extremamente lenta e valores de precisão muito baixos.
+Geralmente a precisão de teste é superior à global.</t>
+  </si>
+  <si>
+    <t>18.86</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>Performance boa porém as médias de precisão são muito baixas.</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>8.71</t>
+  </si>
+  <si>
+    <t>8.66</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +349,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -371,6 +534,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -783,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,103 +978,105 @@
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -905,18 +1088,25 @@
         <v>11</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -928,18 +1118,25 @@
         <v>11</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9">
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -951,49 +1148,63 @@
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="H10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1005,18 +1216,25 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1027,19 +1245,26 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1051,55 +1276,69 @@
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="H16" s="4">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1108,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>29</v>
@@ -1117,109 +1356,177 @@
         <v>11</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="H25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -1234,70 +1541,174 @@
         <v>29</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
+    <row r="34" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="14">
+        <v>85</v>
+      </c>
+      <c r="G39" s="15">
+        <v>40</v>
+      </c>
+      <c r="H39" s="15">
+        <v>47.667000000000002</v>
+      </c>
+      <c r="I39" s="15">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A27:I27"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD881F-7981-B446-AADC-7F586EF57231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935207E4-A31C-0846-845E-296060CEF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Função de treino</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>treino = test (c)</t>
+  </si>
+  <si>
+    <t>Tempo de execução muito elevado.</t>
   </si>
   <si>
     <t>Notas</t>
@@ -285,6 +288,48 @@
   </si>
   <si>
     <t>8.66</t>
+  </si>
+  <si>
+    <t>60.18</t>
+  </si>
+  <si>
+    <t>56.35</t>
+  </si>
+  <si>
+    <t>85.14</t>
+  </si>
+  <si>
+    <t>80.86</t>
+  </si>
+  <si>
+    <t>68.71</t>
+  </si>
+  <si>
+    <t>66.57</t>
+  </si>
+  <si>
+    <t>Em geral, o tempo de execução mantém-se muito semelhante em todos os testes. A principal diferença demonstra-se na precisão dos testes.</t>
+  </si>
+  <si>
+    <t>64.36</t>
+  </si>
+  <si>
+    <t>58.29</t>
+  </si>
+  <si>
+    <t>Tempo de execução muito elevado comparado com os testes anteriores.</t>
+  </si>
+  <si>
+    <t>75.43</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>65.64</t>
+  </si>
+  <si>
+    <t>61.38</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1012,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1019,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1089,13 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,13 +1134,13 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -1119,13 +1164,13 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -1149,13 +1194,13 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -1179,13 +1224,13 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1223,13 +1268,13 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1253,13 +1298,13 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -1286,10 +1331,10 @@
         <v>33</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -1313,13 +1358,13 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1357,13 +1402,13 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -1387,13 +1432,13 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1417,10 +1462,10 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1447,10 +1492,10 @@
         <v>5</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1474,13 +1519,13 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1504,14 +1549,14 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1523,6 +1568,9 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
+      <c r="K28" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1544,8 +1592,15 @@
         <v>27</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1567,8 +1622,12 @@
         <v>28</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1590,8 +1649,12 @@
         <v>38</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="H31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1613,10 +1676,14 @@
         <v>39</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1636,10 +1703,17 @@
         <v>40</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -1659,10 +1733,14 @@
         <v>41</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G38" s="13" t="s">
         <v>42</v>
       </c>
@@ -1670,10 +1748,10 @@
         <v>43</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935207E4-A31C-0846-845E-296060CEF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7A0FB-6F58-1F43-80E9-2F7BCF0F27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>Função de treino</t>
   </si>
@@ -156,180 +156,203 @@
     <t>dividerand = {0.40, 0.30, 0.30}</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>treino = test (c)</t>
-  </si>
-  <si>
-    <t>Tempo de execução muito elevado.</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
-    <t>Tempo de execução muito elevado.
-Baixa performance (medias de 0.04).</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>71.43</t>
-  </si>
-  <si>
-    <t>66.95</t>
-  </si>
-  <si>
-    <t>Valores Médios após 10 Execuções (Pasta 'train': Cada dígito contém 50 elementos)</t>
-  </si>
-  <si>
-    <t>Tempo de execução mais baixo relativamente a apenas 1 camada com 10 neuronios.
-Performance mais alta comparado com o teste anterior (medias de 0.06).</t>
-  </si>
-  <si>
-    <t>41.94</t>
-  </si>
-  <si>
-    <t>37.14</t>
-  </si>
-  <si>
-    <t>70.43</t>
-  </si>
-  <si>
-    <t>69.52</t>
-  </si>
-  <si>
-    <t>54.5</t>
-  </si>
-  <si>
-    <t>49.14</t>
-  </si>
-  <si>
-    <t>79.94</t>
-  </si>
-  <si>
-    <t>75.90</t>
-  </si>
-  <si>
-    <t>31.74</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>Performance muito boa em questão do tempo de execução. 
-Muito rápido, porém resultados muito fracos.</t>
-  </si>
-  <si>
-    <t>Performance muito fraca (lenta) e resultados muito fracos.</t>
-  </si>
-  <si>
     <t>7.14</t>
   </si>
   <si>
-    <t>6.85</t>
-  </si>
-  <si>
-    <t>Tempo de execução mais rápido, porém influenciou na precisão obtendo valores baixos apesar do numero de camadas escondidas e neuronios.</t>
-  </si>
-  <si>
-    <t>Tempo de execução lento porém os resultados foram mais certeiros através do aumento de neuronios em duas das camadas.</t>
-  </si>
-  <si>
-    <t>Tempo de execução mais lento relativamente ao teste anterior, porém os resultados são melhores devido ao aumento de neuronios.
-Performance com médias de 0.04</t>
-  </si>
-  <si>
-    <t>Extremamente lenta e com uma taxa de acerto muito baixa.</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>Perfomance lenta (0.02 a 0.03), porém bons resultados de precisão.</t>
-  </si>
-  <si>
-    <t>84.9</t>
-  </si>
-  <si>
-    <t>82.3</t>
-  </si>
-  <si>
-    <t>12.81</t>
-  </si>
-  <si>
-    <t>13.42</t>
-  </si>
-  <si>
-    <t>Performance extremamente lenta e valores de precisão muito baixos.
-Geralmente a precisão de teste é superior à global.</t>
-  </si>
-  <si>
-    <t>18.86</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>Performance boa porém as médias de precisão são muito baixas.</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>8.71</t>
-  </si>
-  <si>
-    <t>8.66</t>
-  </si>
-  <si>
-    <t>60.18</t>
-  </si>
-  <si>
-    <t>56.35</t>
-  </si>
-  <si>
     <t>85.14</t>
   </si>
   <si>
     <t>80.86</t>
   </si>
   <si>
-    <t>68.71</t>
-  </si>
-  <si>
-    <t>66.57</t>
-  </si>
-  <si>
     <t>Em geral, o tempo de execução mantém-se muito semelhante em todos os testes. A principal diferença demonstra-se na precisão dos testes.</t>
   </si>
   <si>
-    <t>64.36</t>
-  </si>
-  <si>
-    <t>58.29</t>
-  </si>
-  <si>
-    <t>Tempo de execução muito elevado comparado com os testes anteriores.</t>
-  </si>
-  <si>
     <t>75.43</t>
   </si>
   <si>
-    <t>70.5</t>
-  </si>
-  <si>
-    <t>65.64</t>
-  </si>
-  <si>
-    <t>61.38</t>
+    <t>79.57</t>
+  </si>
+  <si>
+    <t>78.29</t>
+  </si>
+  <si>
+    <t>Pasta 'start': 5 imagens p/ dígito</t>
+  </si>
+  <si>
+    <t>Valores Médios após 10 Execuções (Pasta 'train': 50 imagens p/ dígito)</t>
+  </si>
+  <si>
+    <t>40.27</t>
+  </si>
+  <si>
+    <t>37.81</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.06
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>81.16</t>
+  </si>
+  <si>
+    <t>76.19</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.04</t>
+  </si>
+  <si>
+    <t>Performance prejudicada em relação ao teste anterior, porém os resultados obtidos foram muito melhores.
+Performance Treino Média = 0.04
+Performance Teste Média = 0.04</t>
+  </si>
+  <si>
+    <t>53.86</t>
+  </si>
+  <si>
+    <t>48.67</t>
+  </si>
+  <si>
+    <t>Menor tempo de execução comparado ao primeiro teste, porém influenciou na precisão. Devido ao maior número de camadas escondidas e de neuronios podemos obter melhores resultados que no primeiro teste.
+Performance Treino Média = 0.05
+Performance Teste Média = 0.05</t>
+  </si>
+  <si>
+    <t>Tempo de execução elevado, porém resultados satisfatórios.
+Performance Treino Média = 0.05
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>86.19</t>
+  </si>
+  <si>
+    <t>83.62</t>
+  </si>
+  <si>
+    <t>Melhor resultados de precisão devido ao maior número de neuronios e camadas comparado com os outros testes.
+O tempo de execução foi mais elevado.
+Performance Treino Média = 0.03
+Performance Teste Média = 0.03</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>19.62</t>
+  </si>
+  <si>
+    <t>Atingiu quase sempre 1000 épocas, o tempo de execução foi muito rápido e a precisão muito baixa.
+Performance Treino Média = 0.06
+Performance Teste Média = 0.07</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.07
+Performance Teste Média = 0.07</t>
+  </si>
+  <si>
+    <t>29.41</t>
+  </si>
+  <si>
+    <t>30.48</t>
+  </si>
+  <si>
+    <t>"Performance Treino Média = 0.06
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>84.4</t>
+  </si>
+  <si>
+    <t>80.29</t>
+  </si>
+  <si>
+    <t>43.39</t>
+  </si>
+  <si>
+    <t>41.33</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.24
+Performance Teste Média = 0.24</t>
+  </si>
+  <si>
+    <t>12.46</t>
+  </si>
+  <si>
+    <t>11.71</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.3
+Performance Teste Média = 0.3</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.54
+Performance Teste Média = 0.54</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.49
+Performance Teste Média = 0.48</t>
+  </si>
+  <si>
+    <t>59.46</t>
+  </si>
+  <si>
+    <t>56.87</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.06
+Performance Teste Média = 0.07</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.05
+Performance Teste Média = 0.05</t>
+  </si>
+  <si>
+    <t>71.14</t>
+  </si>
+  <si>
+    <t>Pasta 'custom': 3 imagens p/ dígito</t>
+  </si>
+  <si>
+    <t>76.13</t>
+  </si>
+  <si>
+    <t>71.54</t>
+  </si>
+  <si>
+    <t>67.94</t>
+  </si>
+  <si>
+    <t>64.21</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.05
+Performance Teste Média = 0.06</t>
   </si>
 </sst>
 </file>
@@ -421,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -466,6 +489,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -542,7 +679,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -580,24 +717,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -1009,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,24 +1190,39 @@
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="16" max="16" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="P1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1063,12 +1245,28 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="30"/>
+      <c r="M2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="31"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1087,20 +1285,36 @@
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="31"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="31"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1112,129 +1326,156 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="K7" s="31"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="27">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="27">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="K9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="28">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="7"/>
+      <c r="H11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="31"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1246,129 +1487,163 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="K13" s="31"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:17" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="I16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4">
-        <v>33</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K18" s="31"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="31"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1380,8 +1655,13 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="31"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1402,16 +1682,20 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1432,16 +1716,20 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1462,13 +1750,20 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1488,17 +1783,21 @@
         <v>11</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4">
-        <v>5</v>
+      <c r="H24" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1518,17 +1817,21 @@
         <v>11</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4" t="s">
-        <v>82</v>
+      <c r="H25" s="4">
+        <v>11</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1548,15 +1851,28 @@
         <v>11</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
-        <v>83</v>
+      <c r="H26" s="4">
+        <v>9</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="31"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+    </row>
+    <row r="28" spans="1:17" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1568,11 +1884,15 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
-      <c r="K28" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1593,16 +1913,20 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1623,13 +1947,20 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1650,13 +1981,20 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -1677,13 +2015,20 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1704,16 +2049,20 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -1733,56 +2082,19 @@
         <v>41</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="14">
-        <v>85</v>
-      </c>
-      <c r="G39" s="15">
-        <v>40</v>
-      </c>
-      <c r="H39" s="15">
-        <v>47.667000000000002</v>
-      </c>
-      <c r="I39" s="15">
-        <v>85</v>
-      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="K34" s="34"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A20:I20"/>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B7A0FB-6F58-1F43-80E9-2F7BCF0F27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F3A40-6339-6E4E-ABAB-BB8E39865BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="A21:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F3A40-6339-6E4E-ABAB-BB8E39865BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240DF05E-2E2E-ED4B-8ADE-C4CECB22F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>Função de treino</t>
   </si>
@@ -353,6 +353,9 @@
   <si>
     <t>Performance Treino Média = 0.05
 Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>Testar com dividerand = 0 no segundo parametro (validacao)</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -765,6 +768,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -1178,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="A21:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1491,9 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="35" t="s">
+        <v>101</v>
+      </c>
       <c r="M13" s="24"/>
       <c r="N13" s="25"/>
       <c r="P13" s="24"/>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240DF05E-2E2E-ED4B-8ADE-C4CECB22F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04F30D-017A-7446-AC57-ACDEE2ADB117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="189">
   <si>
     <t>Função de treino</t>
   </si>
@@ -356,6 +356,298 @@
   </si>
   <si>
     <t>Testar com dividerand = 0 no segundo parametro (validacao)</t>
+  </si>
+  <si>
+    <t>74.29</t>
+  </si>
+  <si>
+    <t>61.82</t>
+  </si>
+  <si>
+    <t>56.36</t>
+  </si>
+  <si>
+    <t>77.14</t>
+  </si>
+  <si>
+    <t>68.18</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.03
+Performance Teste Média = 0.04</t>
+  </si>
+  <si>
+    <t>53.57</t>
+  </si>
+  <si>
+    <t>43.64</t>
+  </si>
+  <si>
+    <t>Em geral obtiveram-se resultados muito semelhantes ao dataset 'train' porém o que realmente marcou diferença foi o tempo de execução dos testes, que acontece devido ao numero de imagens do dataset 'start' ser significativamente menor que o dataset 'train'.</t>
+  </si>
+  <si>
+    <t>75.14</t>
+  </si>
+  <si>
+    <t>67.27</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>66.71</t>
+  </si>
+  <si>
+    <t>57.27</t>
+  </si>
+  <si>
+    <t>Atinge um numero de épocas muito elevado nas primeiras 4 iterações.
+Tempo de execução muito elevado nas primeiras iterações  e precisão muito baixa, nas restantes a precisão foi significativamente melhor que no dataset 'train'.
+Performance Treino Média = 0.05
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>22.86</t>
+  </si>
+  <si>
+    <t>11.82</t>
+  </si>
+  <si>
+    <t>85.45</t>
+  </si>
+  <si>
+    <t>Resultados de teste e treino muito proximos de 100% e até por vezes a atingir esse valor em grande parte dos testes.
+Performance Treino Média = 0.03
+Performance Teste Média = 0.04</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.25
+Performance Teste Média = 0.25</t>
+  </si>
+  <si>
+    <t>22.73</t>
+  </si>
+  <si>
+    <t>10.91</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.58
+Performance Teste Média = 0.58</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.59
+Performance Teste Média = 0.58</t>
+  </si>
+  <si>
+    <t>68.86</t>
+  </si>
+  <si>
+    <t>64.35</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.05
+Performance Teste Média = 0.08</t>
+  </si>
+  <si>
+    <t>85.71</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.05</t>
+  </si>
+  <si>
+    <t>82.29</t>
+  </si>
+  <si>
+    <t>67.1</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.07</t>
+  </si>
+  <si>
+    <t>52.86</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.09
+Performance Teste Média = 0.11</t>
+  </si>
+  <si>
+    <t>71.71</t>
+  </si>
+  <si>
+    <t>73.57</t>
+  </si>
+  <si>
+    <t>56.19</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.08</t>
+  </si>
+  <si>
+    <t>64.53</t>
+  </si>
+  <si>
+    <t>61.38</t>
+  </si>
+  <si>
+    <t>77.62</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>83.10</t>
+  </si>
+  <si>
+    <t>68.33</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.03
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.05
+Performance Teste Média = 0.07</t>
+  </si>
+  <si>
+    <t>83.1</t>
+  </si>
+  <si>
+    <t>81.67</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.02
+Performance Teste Média = 0.02</t>
+  </si>
+  <si>
+    <t>42.14</t>
+  </si>
+  <si>
+    <t>38.33</t>
+  </si>
+  <si>
+    <t>Atinge um numero de épocas muito elevado nas primeiras 4 iterações.
+Tempo de execução muito elevado nas primeiras iterações  e precisão muito baixa, nas restantes a precisão foi significativamente melhor que no dataset 'train'.
+Performance Treino Média = 0.07
+Performance Teste Média = 0.09</t>
+  </si>
+  <si>
+    <t>39.52</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>59.52</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.07
+Performance Teste Média = 0.08</t>
+  </si>
+  <si>
+    <t>52.14</t>
+  </si>
+  <si>
+    <t>43.33</t>
+  </si>
+  <si>
+    <t>87.62</t>
+  </si>
+  <si>
+    <t>86.67</t>
+  </si>
+  <si>
+    <t>Resultados de teste e treino muito proximos de 100% e até por vezes a atingir esse valor em grande parte dos testes.
+Performance Treino Média = 0.02
+Performance Teste Média = 0.03</t>
+  </si>
+  <si>
+    <t>30.71</t>
+  </si>
+  <si>
+    <t>18.33</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.55
+Performance Teste Média = 0.57</t>
+  </si>
+  <si>
+    <t>9.52</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.63
+Performance Teste Média = 0.62</t>
+  </si>
+  <si>
+    <t>54.29</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.08
+Performance Teste Média = 0.1</t>
+  </si>
+  <si>
+    <t>89.05</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.03
+Performance Teste Média = 0.05</t>
+  </si>
+  <si>
+    <t>62.14</t>
+  </si>
+  <si>
+    <t>62.73</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.08
+Performance Teste Média = 0.11</t>
+  </si>
+  <si>
+    <t>67.5</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.06
+Performance Teste Média = 0.09</t>
+  </si>
+  <si>
+    <t>70.24</t>
+  </si>
+  <si>
+    <t>57.69</t>
+  </si>
+  <si>
+    <t>Performance Treino Média = 0.04
+Performance Teste Média = 0.11</t>
   </si>
 </sst>
 </file>
@@ -399,6 +691,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,6 +707,7 @@
       <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,7 +976,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -711,33 +1005,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -767,8 +1039,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -1180,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,35 +1559,45 @@
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="16" max="16" width="24.5" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="41" customWidth="1"/>
+    <col min="16" max="16" width="68" style="41" customWidth="1"/>
+    <col min="18" max="18" width="24.5" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:21" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="P1" s="20" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="27"/>
+      <c r="U1" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1249,28 +1620,38 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="20"/>
+      <c r="M2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="31"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="21"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="42"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="U3" s="42"/>
+    </row>
+    <row r="4" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1290,60 +1671,84 @@
         <v>11</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="31"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="31"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="M4" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="32">
+        <v>70</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="21"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="43"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="U5" s="43"/>
+    </row>
+    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="21"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="43"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="U6" s="43"/>
+    </row>
+    <row r="7" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="31"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="K7" s="21"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="43"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="U7" s="43"/>
+    </row>
+    <row r="8" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1356,28 +1761,43 @@
         <v>11</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:17" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="M8" s="31">
+        <v>60</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="32">
+        <v>35</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1390,28 +1810,43 @@
         <v>11</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="M9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1424,28 +1859,43 @@
         <v>11</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="M10" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="32">
+        <v>40</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1458,49 +1908,70 @@
         <v>11</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="31"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="M11" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="21"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="43"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="U12" s="43"/>
+    </row>
+    <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="35" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="1:17" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="50"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="U13" s="50"/>
+    </row>
+    <row r="14" spans="1:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7">
@@ -1512,29 +1983,44 @@
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="M14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="U14" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7">
@@ -1546,29 +2032,44 @@
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="M15" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="U15" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7">
@@ -1580,29 +2081,44 @@
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="M16" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="32">
+        <v>30</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="32">
+        <v>45</v>
+      </c>
+      <c r="U16" s="49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7">
@@ -1614,60 +2130,84 @@
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K18" s="31"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="31"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-    </row>
-    <row r="20" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="M17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="U17" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K18" s="21"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="43"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="34"/>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="21"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="43"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="34"/>
+      <c r="U19" s="43"/>
+    </row>
+    <row r="20" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="K20" s="31"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-    </row>
-    <row r="21" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="50"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="34"/>
+      <c r="U20" s="50"/>
+    </row>
+    <row r="21" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1693,15 +2233,30 @@
       <c r="I21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="31">
+        <v>90</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="40"/>
+      <c r="P21" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1727,15 +2282,30 @@
       <c r="I22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" s="32">
+        <v>25</v>
+      </c>
+      <c r="U22" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1761,15 +2331,30 @@
       <c r="I23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="31">
+        <v>23</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1795,15 +2380,30 @@
       <c r="I24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="40"/>
+      <c r="P24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="U24" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1829,15 +2429,30 @@
       <c r="I25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="1:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="32">
+        <v>10</v>
+      </c>
+      <c r="O25" s="40"/>
+      <c r="P25" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="U25" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1863,42 +2478,63 @@
       <c r="I26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="31"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
-    </row>
-    <row r="28" spans="1:17" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="M26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="U26" s="49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="21"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="45"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="34"/>
+      <c r="U27" s="45"/>
+    </row>
+    <row r="28" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="K28" s="33" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+      <c r="K28" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-    </row>
-    <row r="29" spans="1:17" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="45"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="34"/>
+      <c r="U28" s="45"/>
+    </row>
+    <row r="29" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1924,15 +2560,30 @@
       <c r="I29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="1:17" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="U29" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1958,15 +2609,30 @@
       <c r="I30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
-    </row>
-    <row r="31" spans="1:17" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" s="32">
+        <v>80</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="S30" s="32">
+        <v>75</v>
+      </c>
+      <c r="U30" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1992,15 +2658,30 @@
       <c r="I31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="1:17" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" s="40"/>
+      <c r="P31" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="31">
+        <v>85</v>
+      </c>
+      <c r="S31" s="32">
+        <v>75</v>
+      </c>
+      <c r="U31" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -2026,15 +2707,30 @@
       <c r="I32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" s="32">
+        <v>45</v>
+      </c>
+      <c r="O32" s="40"/>
+      <c r="P32" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="U32" s="49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -2060,15 +2756,30 @@
       <c r="I33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="1:17" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="O33" s="40"/>
+      <c r="P33" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="U33" s="49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -2088,23 +2799,44 @@
         <v>41</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="K34" s="34"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
+      <c r="H34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="31">
+        <v>64</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="40"/>
+      <c r="P34" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="R34" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="U34" s="53" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A28:I28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04F30D-017A-7446-AC57-ACDEE2ADB117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160172D-16CE-B24E-98DF-41CBA44BA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Net's Separadas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="263">
   <si>
     <t>Função de treino</t>
   </si>
@@ -648,13 +649,237 @@
   <si>
     <t>Performance Treino Média = 0.04
 Performance Teste Média = 0.11</t>
+  </si>
+  <si>
+    <t>Digitos</t>
+  </si>
+  <si>
+    <t>Operadores</t>
+  </si>
+  <si>
+    <t>91.14</t>
+  </si>
+  <si>
+    <t>86.13</t>
+  </si>
+  <si>
+    <t>97.55</t>
+  </si>
+  <si>
+    <t>12.67</t>
+  </si>
+  <si>
+    <t>Tempo de execução elevado, porém resultados satisfatórios.</t>
+  </si>
+  <si>
+    <t>60.16</t>
+  </si>
+  <si>
+    <t>61.47</t>
+  </si>
+  <si>
+    <t>8.67</t>
+  </si>
+  <si>
+    <t>79.47</t>
+  </si>
+  <si>
+    <t>97.3</t>
+  </si>
+  <si>
+    <t>Performance prejudicada em relação ao teste anterior, porém os resultados obtidos foram muito melhores.</t>
+  </si>
+  <si>
+    <t>Menor tempo de execução comparado ao primeiro teste, porém influenciou na precisão. Devido ao maior número de camadas escondidas e de neuronios podemos obter melhores resultados que no primeiro teste.</t>
+  </si>
+  <si>
+    <t>Melhor resultados de precisão devido ao maior número de neuronios e camadas comparado com os outros testes.
+O tempo de execução foi mais elevado.</t>
+  </si>
+  <si>
+    <t>60.66</t>
+  </si>
+  <si>
+    <t>59.6</t>
+  </si>
+  <si>
+    <t>95.8</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>97.5</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>23.33</t>
+  </si>
+  <si>
+    <t>54.24</t>
+  </si>
+  <si>
+    <t>53.2</t>
+  </si>
+  <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>Atinge um numero de epocas elevado, o que torna a execução do treino muito lenta.</t>
+  </si>
+  <si>
+    <t>Atingiu quase sempre 1000 épocas o que torna o tempo de execução muito demorado.
+O resultado para os operadores foi muito bom comparado com os digitos, apesar o valor medio de precisão de teste ser muito baixo.</t>
+  </si>
+  <si>
+    <t>Testar com o parametro de validacao=0 (dividerand)</t>
+  </si>
+  <si>
+    <t>42.13</t>
+  </si>
+  <si>
+    <t>44.9</t>
+  </si>
+  <si>
+    <t>50.35</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>48.74</t>
+  </si>
+  <si>
+    <t>49.87</t>
+  </si>
+  <si>
+    <t>92.85</t>
+  </si>
+  <si>
+    <t>11.32</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>27.67</t>
+  </si>
+  <si>
+    <t>93.58</t>
+  </si>
+  <si>
+    <t>91.07</t>
+  </si>
+  <si>
+    <t>97.9</t>
+  </si>
+  <si>
+    <t>57.9</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>95.25</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>23.87</t>
+  </si>
+  <si>
+    <t>42.3</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>16.33</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>82.24</t>
+  </si>
+  <si>
+    <t>79.64</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>91.68</t>
+  </si>
+  <si>
+    <t>87.2</t>
+  </si>
+  <si>
+    <t>99.2</t>
+  </si>
+  <si>
+    <t>91.52</t>
+  </si>
+  <si>
+    <t>98.35</t>
+  </si>
+  <si>
+    <t>77.68</t>
+  </si>
+  <si>
+    <t>72.4</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>93.2</t>
+  </si>
+  <si>
+    <t>89.86</t>
+  </si>
+  <si>
+    <t>86.2</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>97.1</t>
+  </si>
+  <si>
+    <t>81.44</t>
+  </si>
+  <si>
+    <t>75.87</t>
+  </si>
+  <si>
+    <t>92.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,8 +951,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,8 +988,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -900,6 +1154,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -976,7 +1248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1076,6 +1348,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1405,78 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1543,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,8 +1907,8 @@
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
     <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="41" customWidth="1"/>
-    <col min="16" max="16" width="68" style="41" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="43" customWidth="1"/>
+    <col min="16" max="16" width="68" style="43" customWidth="1"/>
     <col min="18" max="18" width="24.5" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" customWidth="1"/>
     <col min="21" max="21" width="65.33203125" customWidth="1"/>
@@ -1585,15 +1933,15 @@
         <v>50</v>
       </c>
       <c r="N1" s="27"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="46" t="s">
         <v>42</v>
       </c>
       <c r="R1" s="26" t="s">
         <v>95</v>
       </c>
       <c r="S1" s="27"/>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="46" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1627,8 +1975,8 @@
       <c r="N2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="46" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="48" t="s">
         <v>110</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -1637,7 +1985,7 @@
       <c r="S2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="48" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1645,11 +1993,11 @@
       <c r="K3" s="21"/>
       <c r="M3" s="14"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="44"/>
       <c r="R3" s="14"/>
       <c r="S3" s="15"/>
-      <c r="U3" s="42"/>
+      <c r="U3" s="44"/>
     </row>
     <row r="4" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1686,8 +2034,8 @@
       <c r="N4" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="52" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="54" t="s">
         <v>62</v>
       </c>
       <c r="R4" s="31" t="s">
@@ -1696,7 +2044,7 @@
       <c r="S4" s="32">
         <v>70</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="54" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1704,21 +2052,21 @@
       <c r="K5" s="21"/>
       <c r="M5" s="33"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="43"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="45"/>
       <c r="R5" s="33"/>
       <c r="S5" s="34"/>
-      <c r="U5" s="43"/>
+      <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K6" s="21"/>
       <c r="M6" s="33"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="43"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="45"/>
       <c r="R6" s="33"/>
       <c r="S6" s="34"/>
-      <c r="U6" s="43"/>
+      <c r="U6" s="45"/>
     </row>
     <row r="7" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -1735,11 +2083,11 @@
       <c r="K7" s="21"/>
       <c r="M7" s="33"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="43"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="45"/>
       <c r="R7" s="33"/>
       <c r="S7" s="34"/>
-      <c r="U7" s="43"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1776,8 +2124,8 @@
       <c r="N8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="51" t="s">
+      <c r="O8" s="42"/>
+      <c r="P8" s="53" t="s">
         <v>100</v>
       </c>
       <c r="R8" s="31" t="s">
@@ -1786,7 +2134,7 @@
       <c r="S8" s="32">
         <v>35</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="53" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1825,8 +2173,8 @@
       <c r="N9" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="51" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="53" t="s">
         <v>107</v>
       </c>
       <c r="R9" s="31" t="s">
@@ -1835,7 +2183,7 @@
       <c r="S9" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="U9" s="51" t="s">
+      <c r="U9" s="53" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1874,8 +2222,8 @@
       <c r="N10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="51" t="s">
+      <c r="O10" s="42"/>
+      <c r="P10" s="53" t="s">
         <v>100</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -1884,7 +2232,7 @@
       <c r="S10" s="32">
         <v>40</v>
       </c>
-      <c r="U10" s="51" t="s">
+      <c r="U10" s="53" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1923,8 +2271,8 @@
       <c r="N11" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="47" t="s">
+      <c r="O11" s="42"/>
+      <c r="P11" s="49" t="s">
         <v>113</v>
       </c>
       <c r="R11" s="35" t="s">
@@ -1933,7 +2281,7 @@
       <c r="S11" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="49" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1941,11 +2289,11 @@
       <c r="K12" s="21"/>
       <c r="M12" s="33"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="43"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="45"/>
       <c r="R12" s="33"/>
       <c r="S12" s="34"/>
-      <c r="U12" s="43"/>
+      <c r="U12" s="45"/>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
@@ -1964,11 +2312,11 @@
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="50"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="52"/>
       <c r="R13" s="33"/>
       <c r="S13" s="34"/>
-      <c r="U13" s="50"/>
+      <c r="U13" s="52"/>
     </row>
     <row r="14" spans="1:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1996,7 +2344,7 @@
       <c r="I14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="49" t="s">
         <v>68</v>
       </c>
       <c r="M14" s="31" t="s">
@@ -2005,8 +2353,8 @@
       <c r="N14" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="49" t="s">
+      <c r="O14" s="42"/>
+      <c r="P14" s="51" t="s">
         <v>116</v>
       </c>
       <c r="R14" s="31" t="s">
@@ -2015,7 +2363,7 @@
       <c r="S14" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="51" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2045,7 +2393,7 @@
       <c r="I15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="49" t="s">
         <v>71</v>
       </c>
       <c r="M15" s="31" t="s">
@@ -2054,8 +2402,8 @@
       <c r="N15" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="49" t="s">
+      <c r="O15" s="42"/>
+      <c r="P15" s="51" t="s">
         <v>71</v>
       </c>
       <c r="R15" s="31" t="s">
@@ -2064,7 +2412,7 @@
       <c r="S15" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="U15" s="49" t="s">
+      <c r="U15" s="51" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2094,7 +2442,7 @@
       <c r="I16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="49" t="s">
         <v>74</v>
       </c>
       <c r="M16" s="31" t="s">
@@ -2103,8 +2451,8 @@
       <c r="N16" s="32">
         <v>30</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="49" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="51" t="s">
         <v>71</v>
       </c>
       <c r="R16" s="31" t="s">
@@ -2113,7 +2461,7 @@
       <c r="S16" s="32">
         <v>45</v>
       </c>
-      <c r="U16" s="49" t="s">
+      <c r="U16" s="51" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2143,7 +2491,7 @@
       <c r="I17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="49" t="s">
         <v>71</v>
       </c>
       <c r="M17" s="31" t="s">
@@ -2152,8 +2500,8 @@
       <c r="N17" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="49" t="s">
+      <c r="O17" s="42"/>
+      <c r="P17" s="51" t="s">
         <v>71</v>
       </c>
       <c r="R17" s="31" t="s">
@@ -2162,7 +2510,7 @@
       <c r="S17" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="51" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2170,21 +2518,21 @@
       <c r="K18" s="21"/>
       <c r="M18" s="33"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="43"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="45"/>
       <c r="R18" s="33"/>
       <c r="S18" s="34"/>
-      <c r="U18" s="43"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K19" s="21"/>
       <c r="M19" s="33"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="43"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="45"/>
       <c r="R19" s="33"/>
       <c r="S19" s="34"/>
-      <c r="U19" s="43"/>
+      <c r="U19" s="45"/>
     </row>
     <row r="20" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -2201,11 +2549,11 @@
       <c r="K20" s="21"/>
       <c r="M20" s="33"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="52"/>
       <c r="R20" s="33"/>
       <c r="S20" s="34"/>
-      <c r="U20" s="50"/>
+      <c r="U20" s="52"/>
     </row>
     <row r="21" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2242,8 +2590,8 @@
       <c r="N21" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="48" t="s">
+      <c r="O21" s="42"/>
+      <c r="P21" s="50" t="s">
         <v>122</v>
       </c>
       <c r="R21" s="31" t="s">
@@ -2252,7 +2600,7 @@
       <c r="S21" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="U21" s="50" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2291,8 +2639,8 @@
       <c r="N22" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="49" t="s">
+      <c r="O22" s="42"/>
+      <c r="P22" s="51" t="s">
         <v>125</v>
       </c>
       <c r="R22" s="31" t="s">
@@ -2301,7 +2649,7 @@
       <c r="S22" s="32">
         <v>25</v>
       </c>
-      <c r="U22" s="49" t="s">
+      <c r="U22" s="51" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2340,8 +2688,8 @@
       <c r="N23" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="49" t="s">
+      <c r="O23" s="42"/>
+      <c r="P23" s="51" t="s">
         <v>92</v>
       </c>
       <c r="R23" s="31" t="s">
@@ -2350,7 +2698,7 @@
       <c r="S23" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="U23" s="49" t="s">
+      <c r="U23" s="51" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2389,8 +2737,8 @@
       <c r="N24" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="49" t="s">
+      <c r="O24" s="42"/>
+      <c r="P24" s="51" t="s">
         <v>85</v>
       </c>
       <c r="R24" s="31" t="s">
@@ -2399,7 +2747,7 @@
       <c r="S24" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="U24" s="49" t="s">
+      <c r="U24" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2438,8 +2786,8 @@
       <c r="N25" s="32">
         <v>10</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="49" t="s">
+      <c r="O25" s="42"/>
+      <c r="P25" s="51" t="s">
         <v>128</v>
       </c>
       <c r="R25" s="31" t="s">
@@ -2448,7 +2796,7 @@
       <c r="S25" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="U25" s="49" t="s">
+      <c r="U25" s="51" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2487,8 +2835,8 @@
       <c r="N26" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="49" t="s">
+      <c r="O26" s="42"/>
+      <c r="P26" s="51" t="s">
         <v>130</v>
       </c>
       <c r="R26" s="31" t="s">
@@ -2497,7 +2845,7 @@
       <c r="S26" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="U26" s="49" t="s">
+      <c r="U26" s="51" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2505,11 +2853,11 @@
       <c r="K27" s="21"/>
       <c r="M27" s="33"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="45"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="47"/>
       <c r="R27" s="33"/>
       <c r="S27" s="34"/>
-      <c r="U27" s="45"/>
+      <c r="U27" s="47"/>
     </row>
     <row r="28" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
@@ -2523,16 +2871,16 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="58" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="34"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="45"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="47"/>
       <c r="R28" s="33"/>
       <c r="S28" s="34"/>
-      <c r="U28" s="45"/>
+      <c r="U28" s="47"/>
     </row>
     <row r="29" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2560,7 +2908,7 @@
       <c r="I29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="57" t="s">
         <v>92</v>
       </c>
       <c r="M29" s="31" t="s">
@@ -2569,8 +2917,8 @@
       <c r="N29" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="49" t="s">
+      <c r="O29" s="42"/>
+      <c r="P29" s="51" t="s">
         <v>133</v>
       </c>
       <c r="R29" s="31" t="s">
@@ -2579,7 +2927,7 @@
       <c r="S29" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="51" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2609,7 +2957,7 @@
       <c r="I30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="57" t="s">
         <v>93</v>
       </c>
       <c r="M30" s="31" t="s">
@@ -2618,8 +2966,8 @@
       <c r="N30" s="32">
         <v>80</v>
       </c>
-      <c r="O30" s="40"/>
-      <c r="P30" s="49" t="s">
+      <c r="O30" s="42"/>
+      <c r="P30" s="51" t="s">
         <v>135</v>
       </c>
       <c r="R30" s="31" t="s">
@@ -2628,7 +2976,7 @@
       <c r="S30" s="32">
         <v>75</v>
       </c>
-      <c r="U30" s="49" t="s">
+      <c r="U30" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2658,7 +3006,7 @@
       <c r="I31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="55" t="s">
+      <c r="K31" s="57" t="s">
         <v>93</v>
       </c>
       <c r="M31" s="31" t="s">
@@ -2667,8 +3015,8 @@
       <c r="N31" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="49" t="s">
+      <c r="O31" s="42"/>
+      <c r="P31" s="51" t="s">
         <v>138</v>
       </c>
       <c r="R31" s="31">
@@ -2677,7 +3025,7 @@
       <c r="S31" s="32">
         <v>75</v>
       </c>
-      <c r="U31" s="49" t="s">
+      <c r="U31" s="51" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2707,7 +3055,7 @@
       <c r="I32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="57" t="s">
         <v>93</v>
       </c>
       <c r="M32" s="31" t="s">
@@ -2716,8 +3064,8 @@
       <c r="N32" s="32">
         <v>45</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="49" t="s">
+      <c r="O32" s="42"/>
+      <c r="P32" s="51" t="s">
         <v>140</v>
       </c>
       <c r="R32" s="31" t="s">
@@ -2726,7 +3074,7 @@
       <c r="S32" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="U32" s="49" t="s">
+      <c r="U32" s="51" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2756,7 +3104,7 @@
       <c r="I33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="57" t="s">
         <v>100</v>
       </c>
       <c r="M33" s="31" t="s">
@@ -2765,8 +3113,8 @@
       <c r="N33" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="49" t="s">
+      <c r="O33" s="42"/>
+      <c r="P33" s="51" t="s">
         <v>135</v>
       </c>
       <c r="R33" s="31" t="s">
@@ -2775,7 +3123,7 @@
       <c r="S33" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="U33" s="49" t="s">
+      <c r="U33" s="51" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2805,7 +3153,7 @@
       <c r="I34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K34" s="54" t="s">
+      <c r="K34" s="56" t="s">
         <v>54</v>
       </c>
       <c r="M34" s="31">
@@ -2814,8 +3162,8 @@
       <c r="N34" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="53" t="s">
+      <c r="O34" s="42"/>
+      <c r="P34" s="55" t="s">
         <v>144</v>
       </c>
       <c r="R34" s="31" t="s">
@@ -2824,7 +3172,7 @@
       <c r="S34" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="U34" s="53" t="s">
+      <c r="U34" s="55" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2841,4 +3189,965 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFD4E4D-B39D-5147-983D-A8C09CC18FDA}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="43"/>
+    <col min="12" max="12" width="10.83203125" style="43"/>
+    <col min="14" max="14" width="67.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="84"/>
+      <c r="N1" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="38"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" ht="51" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="38"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="74"/>
+      <c r="K8" s="80">
+        <v>91</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" s="74"/>
+      <c r="K9" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="74"/>
+      <c r="K10" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="74"/>
+      <c r="K11" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="74"/>
+      <c r="K14" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="81">
+        <v>4</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="74"/>
+      <c r="K15" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="74"/>
+      <c r="K16" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="81">
+        <v>11</v>
+      </c>
+      <c r="N16" s="49"/>
+    </row>
+    <row r="17" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="74"/>
+      <c r="K17" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="N17" s="49"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="N18" s="21"/>
+    </row>
+    <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="83">
+        <v>0</v>
+      </c>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="82">
+        <v>25</v>
+      </c>
+      <c r="L24" s="83">
+        <v>2</v>
+      </c>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="82">
+        <v>27</v>
+      </c>
+      <c r="L25" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="63">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="N27" s="21"/>
+    </row>
+    <row r="28" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="82">
+        <v>89</v>
+      </c>
+      <c r="L29" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" s="57"/>
+    </row>
+    <row r="30" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" s="83">
+        <v>8</v>
+      </c>
+      <c r="N30" s="57"/>
+    </row>
+    <row r="31" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="5">
+        <v>87</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" s="83">
+        <v>12</v>
+      </c>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:14" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="68"/>
+      <c r="H32" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="N32" s="57"/>
+    </row>
+    <row r="33" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="57"/>
+    </row>
+    <row r="34" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="68"/>
+      <c r="H34" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6160172D-16CE-B24E-98DF-41CBA44BA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80E640-F994-5C43-A581-31A026863447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Digitos_Operadores" sheetId="1" r:id="rId1"/>
-    <sheet name="Net's Separadas" sheetId="2" r:id="rId2"/>
+    <sheet name="start" sheetId="3" r:id="rId1"/>
+    <sheet name="train" sheetId="1" r:id="rId2"/>
+    <sheet name="custom_draw" sheetId="5" r:id="rId3"/>
+    <sheet name="net's separadas" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
   <si>
     <t>Função de treino</t>
   </si>
@@ -179,9 +181,6 @@
   </si>
   <si>
     <t>78.29</t>
-  </si>
-  <si>
-    <t>Pasta 'start': 5 imagens p/ dígito</t>
   </si>
   <si>
     <t>Valores Médios após 10 Execuções (Pasta 'train': 50 imagens p/ dígito)</t>
@@ -337,9 +336,6 @@
     <t>71.14</t>
   </si>
   <si>
-    <t>Pasta 'custom': 3 imagens p/ dígito</t>
-  </si>
-  <si>
     <t>76.13</t>
   </si>
   <si>
@@ -873,6 +869,12 @@
   </si>
   <si>
     <t>92.25</t>
+  </si>
+  <si>
+    <t>Valores Médios após 10 Execuções (Pasta 'start': 5 imagens p/ dígito)</t>
+  </si>
+  <si>
+    <t>Valores Médios após 10 Execuções (Pasta 'custom_draw': 3 imagens p/ dígito)</t>
   </si>
 </sst>
 </file>
@@ -995,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1060,28 +1062,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1097,15 +1077,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1170,6 +1141,19 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1248,7 +1232,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1283,200 +1267,202 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1888,11 +1874,789 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09904F9-D9A2-2946-B005-9BCA29663EA8}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="68.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="K1" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="23">
+        <v>60</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="24">
+        <v>30</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="23">
+        <v>90</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="23">
+        <v>23</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="24">
+        <v>10</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="24">
+        <v>80</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="24">
+        <v>45</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="23">
+        <v>64</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1905,47 +2669,40 @@
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="57.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="24.5" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="43" customWidth="1"/>
-    <col min="16" max="16" width="68" style="43" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="67" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="67" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="67" customWidth="1"/>
+    <col min="16" max="16" width="68" style="67" customWidth="1"/>
     <col min="18" max="18" width="24.5" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" customWidth="1"/>
     <col min="21" max="21" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="K1" s="19" t="s">
+      <c r="A1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="U1" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="64"/>
+    </row>
+    <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1968,36 +2725,22 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="M2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="48" t="s">
-        <v>110</v>
-      </c>
+      <c r="K2" s="17"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="21"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="44"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
-      <c r="U3" s="44"/>
+      <c r="K3" s="18"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
     </row>
     <row r="4" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2025,78 +2768,70 @@
       <c r="I4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="S4" s="32">
-        <v>70</v>
-      </c>
-      <c r="U4" s="54" t="s">
-        <v>62</v>
-      </c>
+      <c r="K4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="69"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="69"/>
     </row>
     <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="21"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="45"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="U5" s="45"/>
+      <c r="K5" s="18"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="68"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="21"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="45"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="U6" s="45"/>
+      <c r="K6" s="18"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="68"/>
     </row>
     <row r="7" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="K7" s="21"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="45"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="U7" s="45"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="K7" s="18"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="68"/>
     </row>
     <row r="8" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2110,42 +2845,31 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="31">
-        <v>60</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" s="32">
-        <v>35</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>93</v>
-      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="70"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2159,42 +2883,31 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>151</v>
-      </c>
+      <c r="K9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="70"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2208,42 +2921,31 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="S10" s="32">
-        <v>40</v>
-      </c>
-      <c r="U10" s="53" t="s">
-        <v>153</v>
-      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="70"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2257,69 +2959,60 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="U11" s="49" t="s">
-        <v>156</v>
-      </c>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="70"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="21"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="45"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
-      <c r="U12" s="45"/>
+      <c r="K12" s="18"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="K13" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="52"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="34"/>
-      <c r="U13" s="52"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="K13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="68"/>
     </row>
     <row r="14" spans="1:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7">
@@ -2331,7 +3024,7 @@
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2339,36 +3032,25 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="U14" s="51" t="s">
-        <v>159</v>
-      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="71"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="71"/>
     </row>
     <row r="15" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7">
@@ -2380,7 +3062,7 @@
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -2388,36 +3070,25 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="U15" s="51" t="s">
-        <v>54</v>
-      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="71"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="71"/>
     </row>
     <row r="16" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7">
@@ -2429,7 +3100,7 @@
       <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -2437,36 +3108,25 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="K16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N16" s="32">
-        <v>30</v>
-      </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="S16" s="32">
-        <v>45</v>
-      </c>
-      <c r="U16" s="51" t="s">
-        <v>163</v>
-      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="71"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="71"/>
     </row>
     <row r="17" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="7">
@@ -2478,7 +3138,7 @@
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -2486,76 +3146,68 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="U17" s="51" t="s">
-        <v>54</v>
-      </c>
+      <c r="K17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="71"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="71"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K18" s="21"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="45"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
-      <c r="U18" s="45"/>
+      <c r="K18" s="18"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="68"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="21"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="45"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
-      <c r="U19" s="45"/>
+      <c r="K19" s="18"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
     </row>
     <row r="20" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="52"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="34"/>
-      <c r="U20" s="52"/>
-    </row>
-    <row r="21" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="K20" s="18"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
+    </row>
+    <row r="21" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2576,33 +3228,22 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="31">
-        <v>90</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O21" s="42"/>
-      <c r="P21" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="U21" s="50" t="s">
-        <v>168</v>
-      </c>
+      <c r="K21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="71"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="71"/>
     </row>
     <row r="22" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2625,33 +3266,22 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="K22" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="S22" s="32">
-        <v>25</v>
-      </c>
-      <c r="U22" s="51" t="s">
-        <v>125</v>
-      </c>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="71"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="71"/>
     </row>
     <row r="23" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2674,33 +3304,22 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="31">
-        <v>23</v>
-      </c>
-      <c r="N23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="U23" s="51" t="s">
-        <v>92</v>
-      </c>
+      <c r="K23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="71"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="71"/>
     </row>
     <row r="24" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -2726,30 +3345,19 @@
         <v>43</v>
       </c>
       <c r="I24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="U24" s="51" t="s">
-        <v>85</v>
-      </c>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="71"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="71"/>
     </row>
     <row r="25" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -2775,30 +3383,19 @@
         <v>11</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" s="32">
-        <v>10</v>
-      </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="U25" s="51" t="s">
-        <v>174</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="71"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="71"/>
     </row>
     <row r="26" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2824,63 +3421,54 @@
         <v>9</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="R26" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="U26" s="51" t="s">
-        <v>176</v>
-      </c>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="71"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="21"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="47"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="34"/>
-      <c r="U27" s="47"/>
+      <c r="K27" s="18"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="72"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="K28" s="58" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="K28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="47"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="U28" s="47"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="72"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="72"/>
     </row>
     <row r="29" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -2903,33 +3491,22 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="K29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="O29" s="42"/>
-      <c r="P29" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="R29" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="U29" s="51" t="s">
-        <v>178</v>
-      </c>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="71"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="30" spans="1:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2957,28 +3534,17 @@
       <c r="I30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N30" s="32">
-        <v>80</v>
-      </c>
-      <c r="O30" s="42"/>
-      <c r="P30" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R30" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="S30" s="32">
-        <v>75</v>
-      </c>
-      <c r="U30" s="51" t="s">
-        <v>151</v>
-      </c>
+      <c r="K30" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="71"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="71"/>
     </row>
     <row r="31" spans="1:21" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3004,30 +3570,19 @@
         <v>47</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="R31" s="31">
-        <v>85</v>
-      </c>
-      <c r="S31" s="32">
-        <v>75</v>
-      </c>
-      <c r="U31" s="51" t="s">
-        <v>180</v>
-      </c>
+      <c r="K31" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="71"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="71"/>
     </row>
     <row r="32" spans="1:21" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3050,33 +3605,22 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="N32" s="32">
-        <v>45</v>
-      </c>
-      <c r="O32" s="42"/>
-      <c r="P32" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="R32" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="S32" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="U32" s="51" t="s">
-        <v>183</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="71"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="71"/>
     </row>
     <row r="33" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3099,33 +3643,22 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="M33" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="O33" s="42"/>
-      <c r="P33" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R33" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="S33" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="U33" s="51" t="s">
-        <v>185</v>
-      </c>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="71"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="71"/>
     </row>
     <row r="34" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3148,33 +3681,22 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="31">
-        <v>64</v>
-      </c>
-      <c r="N34" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="R34" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="S34" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="U34" s="55" t="s">
-        <v>188</v>
-      </c>
+      <c r="K34" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="71"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3191,12 +3713,876 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D26FE-2532-E049-9F91-FE1ABDBCFEA0}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="11" max="11" width="61.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="74">
+        <v>1</v>
+      </c>
+      <c r="C4" s="74">
+        <v>10</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="24">
+        <v>70</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="77">
+        <v>2</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="78"/>
+      <c r="H8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="24">
+        <v>35</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="K8" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="77">
+        <v>2</v>
+      </c>
+      <c r="C9" s="77">
+        <v>10.1</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="77">
+        <v>3</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="24">
+        <v>40</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="77">
+        <v>3</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="75"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="79"/>
+    </row>
+    <row r="14" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="78">
+        <v>1</v>
+      </c>
+      <c r="C14" s="78">
+        <v>10</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="78"/>
+      <c r="H14" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="78">
+        <v>1</v>
+      </c>
+      <c r="C15" s="78">
+        <v>10</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="H15" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="78">
+        <v>1</v>
+      </c>
+      <c r="C16" s="78">
+        <v>10</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="24">
+        <v>45</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="K16" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="78">
+        <v>1</v>
+      </c>
+      <c r="C17" s="78">
+        <v>10</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="75"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="75"/>
+    </row>
+    <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="78">
+        <v>1</v>
+      </c>
+      <c r="C21" s="78">
+        <v>10</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="78">
+        <v>1</v>
+      </c>
+      <c r="C22" s="78">
+        <v>10</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="24">
+        <v>25</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="78">
+        <v>1</v>
+      </c>
+      <c r="C23" s="78">
+        <v>10</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="78"/>
+      <c r="H23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="78">
+        <v>1</v>
+      </c>
+      <c r="C24" s="78">
+        <v>10</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="78"/>
+      <c r="H24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="78">
+        <v>1</v>
+      </c>
+      <c r="C25" s="78">
+        <v>10</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="78"/>
+      <c r="H25" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="78">
+        <v>1</v>
+      </c>
+      <c r="C26" s="78">
+        <v>10</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="80"/>
+    </row>
+    <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="80"/>
+    </row>
+    <row r="29" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="78">
+        <v>1</v>
+      </c>
+      <c r="C29" s="78">
+        <v>10</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="78">
+        <v>1</v>
+      </c>
+      <c r="C30" s="78">
+        <v>10</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="24">
+        <v>75</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="78">
+        <v>1</v>
+      </c>
+      <c r="C31" s="78">
+        <v>10</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="23">
+        <v>85</v>
+      </c>
+      <c r="I31" s="24">
+        <v>75</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="78">
+        <v>1</v>
+      </c>
+      <c r="C32" s="78">
+        <v>10</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="78"/>
+      <c r="H32" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="78">
+        <v>1</v>
+      </c>
+      <c r="C33" s="78">
+        <v>10</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="78"/>
+      <c r="H33" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="78">
+        <v>1</v>
+      </c>
+      <c r="C34" s="78">
+        <v>10</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFD4E4D-B39D-5147-983D-A8C09CC18FDA}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,31 +4593,29 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="43"/>
-    <col min="12" max="12" width="10.83203125" style="43"/>
     <col min="14" max="14" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="84"/>
-      <c r="N1" s="19" t="s">
+      <c r="A1" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="61"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="N1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3258,20 +4642,19 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="76" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="20"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="38"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="N3" s="21"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="51" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3289,65 +4672,63 @@
       <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="61" t="s">
+      <c r="F4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="L4" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="78" t="s">
+      <c r="N4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="N5" s="21"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="N6" s="21"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="21"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -3356,33 +4737,33 @@
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="61" t="s">
+      <c r="F8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="54">
+        <v>91</v>
+      </c>
+      <c r="L8" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="80">
-        <v>91</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -3391,35 +4772,35 @@
       <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="61" t="s">
-        <v>136</v>
+      <c r="F9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="L9" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="10" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3428,35 +4809,35 @@
       <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="61" t="s">
+      <c r="F10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L10" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>202</v>
+      <c r="N10" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -3465,230 +4846,225 @@
       <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="61" t="s">
+      <c r="F11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="N11" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="81" t="s">
+      <c r="I14" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="24" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="55">
+        <v>4</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="40" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="81">
-        <v>4</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="80" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="I16" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="N15" s="49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="61" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="L16" s="55">
+        <v>11</v>
+      </c>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="J16" s="74"/>
-      <c r="K16" s="80" t="s">
+      <c r="I17" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="L16" s="81">
-        <v>11</v>
-      </c>
-      <c r="N16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="61" t="s">
+      <c r="J17" s="45"/>
+      <c r="K17" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="L17" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="N17" s="49"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="N18" s="21"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="N19" s="21"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="21"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3706,24 +5082,24 @@
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="63" t="s">
+      <c r="F21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" s="23"/>
+      <c r="L21" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3741,24 +5117,24 @@
       <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="63" t="s">
+      <c r="F22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="L22" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="L22" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="N22" s="23"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3776,24 +5152,24 @@
       <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="63" t="s">
+      <c r="F23" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="L23" s="83">
+      <c r="L23" s="57">
         <v>0</v>
       </c>
-      <c r="N23" s="23"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3811,24 +5187,24 @@
       <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="63" t="s">
-        <v>238</v>
+      <c r="F24" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="42" t="s">
+        <v>236</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="82">
+        <v>237</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="56">
         <v>25</v>
       </c>
-      <c r="L24" s="83">
+      <c r="L24" s="57">
         <v>2</v>
       </c>
-      <c r="N24" s="23"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3846,24 +5222,24 @@
       <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="63" t="s">
-        <v>240</v>
+      <c r="F25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="42" t="s">
+        <v>238</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="82">
+        <v>223</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="56">
         <v>27</v>
       </c>
-      <c r="L25" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="N25" s="23"/>
+      <c r="L25" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3881,50 +5257,49 @@
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="63">
+      <c r="F26" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="42">
         <v>10</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="23"/>
+        <v>240</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="N27" s="21"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="58" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="37" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3944,24 +5319,24 @@
       <c r="E29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="63" t="s">
+      <c r="G29" s="46"/>
+      <c r="H29" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="56">
+        <v>89</v>
+      </c>
+      <c r="L29" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="82">
-        <v>89</v>
-      </c>
-      <c r="L29" s="83" t="s">
-        <v>246</v>
-      </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="31"/>
     </row>
     <row r="30" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3979,24 +5354,24 @@
       <c r="E30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="63" t="s">
+      <c r="G30" s="46"/>
+      <c r="H30" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="82" t="s">
-        <v>249</v>
-      </c>
-      <c r="L30" s="83">
+      <c r="L30" s="57">
         <v>8</v>
       </c>
-      <c r="N30" s="57"/>
+      <c r="N30" s="31"/>
     </row>
     <row r="31" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -4014,24 +5389,24 @@
       <c r="E31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="63" t="s">
-        <v>250</v>
+      <c r="G31" s="1"/>
+      <c r="H31" s="42" t="s">
+        <v>248</v>
       </c>
       <c r="I31" s="5">
         <v>87</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31" s="83">
+      <c r="J31" s="1"/>
+      <c r="K31" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="57">
         <v>12</v>
       </c>
-      <c r="N31" s="57"/>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" spans="1:14" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -4049,24 +5424,24 @@
       <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="63" t="s">
+      <c r="G32" s="46"/>
+      <c r="H32" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="L32" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="N32" s="57"/>
+      <c r="N32" s="31"/>
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -4084,24 +5459,24 @@
       <c r="E33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="63" t="s">
+      <c r="G33" s="46"/>
+      <c r="H33" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -4119,24 +5494,24 @@
       <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="63" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="82" t="s">
-        <v>262</v>
-      </c>
-      <c r="L34" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" s="56"/>
+      <c r="L34" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E80E640-F994-5C43-A581-31A026863447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDD574-3FB5-904A-95F6-9ECE2D1DFF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="264">
   <si>
     <t>Função de treino</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>Valores Médios após 10 Execuções (Pasta 'custom_draw': 3 imagens p/ dígito)</t>
+  </si>
+  <si>
+    <t>10, 10</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1363,9 +1366,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09904F9-D9A2-2946-B005-9BCA29663EA8}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1890,17 +1890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
@@ -1972,17 +1972,17 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2109,17 +2109,17 @@
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2249,17 +2249,17 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -2446,17 +2446,17 @@
       <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2667,40 +2667,40 @@
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="57.33203125" customWidth="1"/>
+    <col min="11" max="11" width="103.5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="67" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="67" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="67" customWidth="1"/>
-    <col min="16" max="16" width="68" style="67" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="66" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
+    <col min="16" max="16" width="68" style="66" customWidth="1"/>
     <col min="18" max="18" width="24.5" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" customWidth="1"/>
     <col min="21" max="21" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="64"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="63"/>
     </row>
     <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2726,21 +2726,21 @@
         <v>6</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="66"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K3" s="18"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
     </row>
     <row r="4" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2771,58 +2771,58 @@
       <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="69"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="69"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="68"/>
     </row>
     <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K5" s="18"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="67"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K6" s="18"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="68"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
     </row>
     <row r="7" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="K7" s="18"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="68"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="67"/>
     </row>
     <row r="8" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2853,16 +2853,16 @@
       <c r="K8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="70"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="70"/>
-    </row>
-    <row r="9" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="69"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="69"/>
+    </row>
+    <row r="9" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -2891,16 +2891,16 @@
       <c r="K9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="70"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="70"/>
-    </row>
-    <row r="10" spans="1:21" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="69"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="69"/>
+    </row>
+    <row r="10" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -2929,16 +2929,16 @@
       <c r="K10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="70"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="70"/>
-    </row>
-    <row r="11" spans="1:21" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="69"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="69"/>
+    </row>
+    <row r="11" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
@@ -2967,51 +2967,51 @@
       <c r="K11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="70"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="70"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="69"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="69"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K12" s="18"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="K13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
-    </row>
-    <row r="14" spans="1:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+    </row>
+    <row r="14" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -3040,14 +3040,14 @@
       <c r="K14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="71"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="71"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="70"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -3078,14 +3078,14 @@
       <c r="K15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="71"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="71"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="70"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3116,14 +3116,14 @@
       <c r="K16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="71"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="71"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="70"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -3154,58 +3154,58 @@
       <c r="K17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="71"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="71"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="70"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K18" s="18"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="67"/>
     </row>
     <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K19" s="18"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="67"/>
     </row>
     <row r="20" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="K20" s="18"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3236,14 +3236,14 @@
       <c r="K21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="71"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="71"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="70"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="70"/>
     </row>
     <row r="22" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3274,14 +3274,14 @@
       <c r="K22" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="71"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="71"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="70"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="70"/>
     </row>
     <row r="23" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3312,14 +3312,14 @@
       <c r="K23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="71"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="71"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="70"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="70"/>
     </row>
     <row r="24" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3350,14 +3350,14 @@
       <c r="K24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="71"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="71"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="70"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="70"/>
     </row>
     <row r="25" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3388,14 +3388,14 @@
       <c r="K25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="71"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="71"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="70"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="70"/>
     </row>
     <row r="26" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3426,49 +3426,49 @@
       <c r="K26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="71"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="71"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="70"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="70"/>
     </row>
     <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K27" s="18"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="72"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="72"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="71"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
       <c r="K28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="72"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="72"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="71"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3499,14 +3499,14 @@
       <c r="K29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="71"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="71"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="70"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="70"/>
     </row>
     <row r="30" spans="1:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3537,14 +3537,14 @@
       <c r="K30" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="71"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="71"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="70"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="70"/>
     </row>
     <row r="31" spans="1:21" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3575,14 +3575,14 @@
       <c r="K31" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="71"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="71"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="70"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="70"/>
     </row>
     <row r="32" spans="1:21" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3613,14 +3613,14 @@
       <c r="K32" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="71"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="71"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="70"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="70"/>
     </row>
     <row r="33" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3651,14 +3651,14 @@
       <c r="K33" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="71"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="71"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="70"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="70"/>
     </row>
     <row r="34" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3689,14 +3689,14 @@
       <c r="K34" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="71"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="71"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="70"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3717,486 +3717,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D26FE-2532-E049-9F91-FE1ABDBCFEA0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" customWidth="1"/>
     <col min="11" max="11" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="72" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="51"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74">
-        <v>1</v>
-      </c>
-      <c r="C4" s="74">
-        <v>10</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="74"/>
+      <c r="B4" s="73">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73">
+        <v>10</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="73"/>
       <c r="H4" s="23" t="s">
         <v>145</v>
       </c>
       <c r="I4" s="24">
         <v>70</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="75"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="75"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="75"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="76">
         <v>2</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="78"/>
+      <c r="E8" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="77"/>
       <c r="H8" s="23" t="s">
         <v>146</v>
       </c>
       <c r="I8" s="24">
         <v>35</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="76">
         <v>2</v>
       </c>
-      <c r="C9" s="77">
-        <v>10.1</v>
-      </c>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="78"/>
+      <c r="E9" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="77"/>
       <c r="H9" s="23" t="s">
         <v>147</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="76">
         <v>3</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="78"/>
+      <c r="E10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="77"/>
       <c r="H10" s="23" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="24">
         <v>40</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="76">
         <v>3</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="78"/>
+      <c r="E11" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="77"/>
       <c r="H11" s="25" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="75"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="79"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="78">
-        <v>1</v>
-      </c>
-      <c r="C14" s="78">
-        <v>10</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="78"/>
+      <c r="B14" s="77">
+        <v>1</v>
+      </c>
+      <c r="C14" s="77">
+        <v>10</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="77"/>
       <c r="H14" s="23" t="s">
         <v>155</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="78">
-        <v>1</v>
-      </c>
-      <c r="C15" s="78">
-        <v>10</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="77" t="s">
+      <c r="B15" s="77">
+        <v>1</v>
+      </c>
+      <c r="C15" s="77">
+        <v>10</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="78"/>
+      <c r="F15" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="77"/>
       <c r="H15" s="23" t="s">
         <v>158</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="78">
-        <v>1</v>
-      </c>
-      <c r="C16" s="78">
-        <v>10</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="77" t="s">
+      <c r="B16" s="77">
+        <v>1</v>
+      </c>
+      <c r="C16" s="77">
+        <v>10</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="78"/>
+      <c r="F16" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="77"/>
       <c r="H16" s="23" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="24">
         <v>45</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="78">
-        <v>1</v>
-      </c>
-      <c r="C17" s="78">
-        <v>10</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="77" t="s">
+      <c r="B17" s="77">
+        <v>1</v>
+      </c>
+      <c r="C17" s="77">
+        <v>10</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="78"/>
+      <c r="F17" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="77"/>
       <c r="H17" s="23" t="s">
         <v>162</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="75"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="75"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="79"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="78">
-        <v>1</v>
-      </c>
-      <c r="C21" s="78">
-        <v>10</v>
-      </c>
-      <c r="D21" s="77" t="s">
+      <c r="B21" s="77">
+        <v>1</v>
+      </c>
+      <c r="C21" s="77">
+        <v>10</v>
+      </c>
+      <c r="D21" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="78"/>
+      <c r="E21" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="77"/>
       <c r="H21" s="23" t="s">
         <v>164</v>
       </c>
@@ -4208,25 +4209,25 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="78">
-        <v>1</v>
-      </c>
-      <c r="C22" s="78">
-        <v>10</v>
-      </c>
-      <c r="D22" s="77" t="s">
+      <c r="B22" s="77">
+        <v>1</v>
+      </c>
+      <c r="C22" s="77">
+        <v>10</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="78"/>
+      <c r="E22" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="77"/>
       <c r="H22" s="23" t="s">
         <v>158</v>
       </c>
@@ -4238,25 +4239,25 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="78">
-        <v>1</v>
-      </c>
-      <c r="C23" s="78">
-        <v>10</v>
-      </c>
-      <c r="D23" s="77" t="s">
+      <c r="B23" s="77">
+        <v>1</v>
+      </c>
+      <c r="C23" s="77">
+        <v>10</v>
+      </c>
+      <c r="D23" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="78"/>
+      <c r="E23" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="77"/>
       <c r="H23" s="23" t="s">
         <v>167</v>
       </c>
@@ -4268,25 +4269,25 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="78">
-        <v>1</v>
-      </c>
-      <c r="C24" s="78">
-        <v>10</v>
-      </c>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="77">
+        <v>1</v>
+      </c>
+      <c r="C24" s="77">
+        <v>10</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="78"/>
+      <c r="E24" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="77"/>
       <c r="H24" s="23" t="s">
         <v>43</v>
       </c>
@@ -4298,25 +4299,25 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="78">
-        <v>1</v>
-      </c>
-      <c r="C25" s="78">
-        <v>10</v>
-      </c>
-      <c r="D25" s="77" t="s">
+      <c r="B25" s="77">
+        <v>1</v>
+      </c>
+      <c r="C25" s="77">
+        <v>10</v>
+      </c>
+      <c r="D25" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="78"/>
+      <c r="E25" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="77"/>
       <c r="H25" s="23" t="s">
         <v>170</v>
       </c>
@@ -4328,25 +4329,25 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="78">
-        <v>1</v>
-      </c>
-      <c r="C26" s="78">
-        <v>10</v>
-      </c>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="77">
+        <v>1</v>
+      </c>
+      <c r="C26" s="77">
+        <v>10</v>
+      </c>
+      <c r="D26" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="78"/>
+      <c r="E26" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="77"/>
       <c r="H26" s="23" t="s">
         <v>173</v>
       </c>
@@ -4358,53 +4359,53 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="80"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="80"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="79"/>
     </row>
     <row r="29" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="78">
-        <v>1</v>
-      </c>
-      <c r="C29" s="78">
-        <v>10</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="77" t="s">
+      <c r="B29" s="77">
+        <v>1</v>
+      </c>
+      <c r="C29" s="77">
+        <v>10</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="23" t="s">
         <v>175</v>
       </c>
@@ -4416,25 +4417,25 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="78">
-        <v>1</v>
-      </c>
-      <c r="C30" s="78">
-        <v>10</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="77" t="s">
+      <c r="B30" s="77">
+        <v>1</v>
+      </c>
+      <c r="C30" s="77">
+        <v>10</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="23" t="s">
         <v>177</v>
       </c>
@@ -4446,25 +4447,25 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="78">
-        <v>1</v>
-      </c>
-      <c r="C31" s="78">
-        <v>10</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="77" t="s">
+      <c r="B31" s="77">
+        <v>1</v>
+      </c>
+      <c r="C31" s="77">
+        <v>10</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="77"/>
       <c r="H31" s="23">
         <v>85</v>
       </c>
@@ -4476,25 +4477,25 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="78">
-        <v>1</v>
-      </c>
-      <c r="C32" s="78">
-        <v>10</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="77" t="s">
+      <c r="B32" s="77">
+        <v>1</v>
+      </c>
+      <c r="C32" s="77">
+        <v>10</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="78"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="23" t="s">
         <v>179</v>
       </c>
@@ -4506,25 +4507,25 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="78">
-        <v>1</v>
-      </c>
-      <c r="C33" s="78">
-        <v>10</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="77" t="s">
+      <c r="B33" s="77">
+        <v>1</v>
+      </c>
+      <c r="C33" s="77">
+        <v>10</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="23" t="s">
         <v>140</v>
       </c>
@@ -4536,25 +4537,25 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="78">
-        <v>1</v>
-      </c>
-      <c r="C34" s="78">
-        <v>10</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="77" t="s">
+      <c r="B34" s="77">
+        <v>1</v>
+      </c>
+      <c r="C34" s="77">
+        <v>10</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="78"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="23" t="s">
         <v>184</v>
       </c>
@@ -4581,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFD4E4D-B39D-5147-983D-A8C09CC18FDA}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4593,28 +4594,28 @@
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="14" max="14" width="67.33203125" customWidth="1"/>
+    <col min="14" max="14" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="61"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="61"/>
       <c r="N1" s="16" t="s">
         <v>42</v>
       </c>
@@ -4643,17 +4644,17 @@
         <v>6</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="51" thickBot="1" x14ac:dyDescent="0.25">
@@ -4683,10 +4684,10 @@
         <v>190</v>
       </c>
       <c r="J4" s="45"/>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="52" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="19" t="s">
@@ -4694,30 +4695,34 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="60"/>
       <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="K7" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="61"/>
       <c r="M7" s="12"/>
       <c r="N7" s="18"/>
     </row>
@@ -4748,10 +4753,10 @@
         <v>195</v>
       </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="54">
+      <c r="K8" s="53">
         <v>91</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="19"/>
@@ -4783,17 +4788,17 @@
         <v>197</v>
       </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>192</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -4820,10 +4825,10 @@
         <v>203</v>
       </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="54" t="s">
         <v>205</v>
       </c>
       <c r="N10" s="19" t="s">
@@ -4857,10 +4862,10 @@
         <v>207</v>
       </c>
       <c r="J11" s="45"/>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>208</v>
       </c>
       <c r="N11" s="19" t="s">
@@ -4868,33 +4873,37 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="H13" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="60"/>
       <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="61"/>
       <c r="M13" s="12"/>
       <c r="N13" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4921,10 +4930,10 @@
         <v>210</v>
       </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="54">
         <v>4</v>
       </c>
       <c r="N14" s="30" t="s">
@@ -4958,10 +4967,10 @@
         <v>215</v>
       </c>
       <c r="J15" s="45"/>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="54" t="s">
         <v>218</v>
       </c>
       <c r="N15" s="30" t="s">
@@ -4995,10 +5004,10 @@
         <v>220</v>
       </c>
       <c r="J16" s="45"/>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="54">
         <v>11</v>
       </c>
       <c r="N16" s="30"/>
@@ -5030,39 +5039,43 @@
         <v>223</v>
       </c>
       <c r="J17" s="45"/>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="54" t="s">
         <v>225</v>
       </c>
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="H20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="60"/>
       <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="K20" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="61"/>
       <c r="M20" s="12"/>
       <c r="N20" s="18"/>
     </row>
@@ -5093,10 +5106,10 @@
         <v>227</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="56" t="s">
         <v>205</v>
       </c>
       <c r="N21" s="20"/>
@@ -5128,10 +5141,10 @@
         <v>230</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="L22" s="57" t="s">
+      <c r="L22" s="56" t="s">
         <v>232</v>
       </c>
       <c r="N22" s="20"/>
@@ -5163,10 +5176,10 @@
         <v>234</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="56">
         <v>0</v>
       </c>
       <c r="N23" s="20"/>
@@ -5198,10 +5211,10 @@
         <v>237</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="56">
+      <c r="K24" s="55">
         <v>25</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="56">
         <v>2</v>
       </c>
       <c r="N24" s="20"/>
@@ -5233,10 +5246,10 @@
         <v>223</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="56">
+      <c r="K25" s="55">
         <v>27</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="56" t="s">
         <v>239</v>
       </c>
       <c r="N25" s="20"/>
@@ -5268,40 +5281,43 @@
         <v>240</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="56" t="s">
         <v>208</v>
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+    <row r="27" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="N27" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="H28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="60"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="K28" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="61"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="37" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -5330,10 +5346,10 @@
         <v>243</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="56">
+      <c r="K29" s="55">
         <v>89</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="56" t="s">
         <v>244</v>
       </c>
       <c r="N29" s="31"/>
@@ -5365,10 +5381,10 @@
         <v>246</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="56">
         <v>8</v>
       </c>
       <c r="N30" s="31"/>
@@ -5400,10 +5416,10 @@
         <v>87</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="L31" s="57">
+      <c r="L31" s="56">
         <v>12</v>
       </c>
       <c r="N31" s="31"/>
@@ -5435,10 +5451,10 @@
         <v>251</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="L32" s="57" t="s">
+      <c r="L32" s="56" t="s">
         <v>252</v>
       </c>
       <c r="N32" s="31"/>
@@ -5470,10 +5486,10 @@
         <v>255</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="L33" s="56" t="s">
         <v>256</v>
       </c>
       <c r="N33" s="31"/>
@@ -5505,16 +5521,16 @@
         <v>259</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="L34" s="57" t="s">
+      <c r="L34" s="56" t="s">
         <v>169</v>
       </c>
       <c r="N34" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K1:L1"/>
@@ -5522,6 +5538,14 @@
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDD574-3FB5-904A-95F6-9ECE2D1DFF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C888D47-55E5-9E42-B42D-1E14A69C3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="30240" windowHeight="21080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="275">
   <si>
     <t>Função de treino</t>
   </si>
@@ -878,6 +878,39 @@
   </si>
   <si>
     <t>10, 10</t>
+  </si>
+  <si>
+    <t>dividerand = {0.7, 0, 0.3}</t>
+  </si>
+  <si>
+    <t>Ao colocar o parametro de validação a 0, o tempo de execução baixo bastante e os resultados melhoraram.</t>
+  </si>
+  <si>
+    <t>45.59</t>
+  </si>
+  <si>
+    <t>40.33</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0, 0.5}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.3, 0, 0.7}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O parâmetro de validação influencia o desempenho? </t>
+  </si>
+  <si>
+    <t>37.46</t>
+  </si>
+  <si>
+    <t>27.91</t>
+  </si>
+  <si>
+    <t>34.86</t>
+  </si>
+  <si>
+    <t>31.24</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1391,6 +1424,54 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,68 +1482,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1890,17 +1922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
       <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
@@ -1972,17 +2004,17 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2109,17 +2141,17 @@
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2249,17 +2281,17 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -2446,17 +2478,17 @@
       <c r="K27" s="28"/>
     </row>
     <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2653,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2669,38 +2701,37 @@
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="103.5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="68" style="66" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="68" customWidth="1"/>
     <col min="18" max="18" width="24.5" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" customWidth="1"/>
     <col min="21" max="21" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
       <c r="K1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="63"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2726,21 +2757,16 @@
         <v>6</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="65"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K3" s="18"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
     </row>
     <row r="4" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2771,58 +2797,54 @@
       <c r="K4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="68"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="U4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K5" s="18"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="67"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K6" s="18"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="67"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="K7" s="18"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="67"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="U7" s="59"/>
     </row>
     <row r="8" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2853,14 +2875,13 @@
       <c r="K8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="69"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="69"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="U8" s="61"/>
     </row>
     <row r="9" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -2891,14 +2912,13 @@
       <c r="K9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="69"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="69"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="61"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -2929,14 +2949,13 @@
       <c r="K10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="69"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="69"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="61"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2967,49 +2986,46 @@
       <c r="K11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="69"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="69"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="61"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="U11" s="61"/>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K12" s="18"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
       <c r="K13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="67"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -3040,14 +3056,13 @@
       <c r="K14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="70"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="70"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="62"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="U14" s="62"/>
     </row>
     <row r="15" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -3078,14 +3093,13 @@
       <c r="K15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="70"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="70"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="62"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3116,14 +3130,13 @@
       <c r="K16" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="70"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="70"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="62"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="U16" s="62"/>
     </row>
     <row r="17" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -3154,515 +3167,481 @@
       <c r="K17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="70"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="70"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K18" s="18"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="67"/>
-    </row>
-    <row r="19" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="18"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="67"/>
-    </row>
-    <row r="20" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="62"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="U17" s="62"/>
+    </row>
+    <row r="18" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="80"/>
+      <c r="K18" s="30"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="62"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="U18" s="62"/>
+    </row>
+    <row r="19" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="78"/>
+      <c r="K19" s="30"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="62"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="U19" s="62"/>
+    </row>
+    <row r="20" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="62"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="U20" s="62"/>
+    </row>
+    <row r="21" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="62"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="U21" s="62"/>
+    </row>
+    <row r="22" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="62"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="U22" s="62"/>
+    </row>
+    <row r="23" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="30"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="62"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="U23" s="62"/>
+    </row>
+    <row r="24" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="K20" s="18"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="67"/>
-    </row>
-    <row r="21" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="K24" s="30"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="62"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="U24" s="62"/>
+    </row>
+    <row r="25" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4" t="s">
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K25" s="30"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="62"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="U25" s="62"/>
+    </row>
+    <row r="26" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="U26" s="59"/>
+    </row>
+    <row r="27" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="U27" s="59"/>
+    </row>
+    <row r="28" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="U28" s="59"/>
+    </row>
+    <row r="29" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="70"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="70"/>
-    </row>
-    <row r="22" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="20" t="s">
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="62"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="U29" s="62"/>
+    </row>
+    <row r="30" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4">
+        <v>9</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="70"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="70"/>
-    </row>
-    <row r="23" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="20" t="s">
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="62"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="U30" s="62"/>
+    </row>
+    <row r="31" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="70"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="70"/>
-    </row>
-    <row r="24" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="62"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="U31" s="62"/>
+    </row>
+    <row r="32" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75"/>
+      <c r="K32" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="70"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="70"/>
-    </row>
-    <row r="25" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4">
-        <v>11</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="70"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="70"/>
-    </row>
-    <row r="26" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4">
-        <v>9</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="70"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="70"/>
-    </row>
-    <row r="27" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="18"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="71"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="71"/>
-    </row>
-    <row r="28" spans="1:21" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-      <c r="K28" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="71"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="71"/>
-    </row>
-    <row r="29" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="62"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="U32" s="62"/>
+    </row>
+    <row r="33" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="70"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="70"/>
-    </row>
-    <row r="30" spans="1:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="70"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="70"/>
-    </row>
-    <row r="31" spans="1:21" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="70"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="70"/>
-    </row>
-    <row r="32" spans="1:21" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="70"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="70"/>
-    </row>
-    <row r="33" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="70"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="70"/>
-    </row>
-    <row r="34" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="62"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="U33" s="62"/>
+    </row>
+    <row r="34" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -3676,37 +3655,231 @@
       <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>41</v>
+      <c r="F34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="62"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="U34" s="62"/>
+    </row>
+    <row r="35" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="45"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="45"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="1:21" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="62"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="U37" s="62"/>
+    </row>
+    <row r="38" spans="1:21" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K38" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="62"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="U38" s="62"/>
+    </row>
+    <row r="39" spans="1:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="62"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="U39" s="62"/>
+    </row>
+    <row r="40" spans="1:21" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="62"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="U40" s="62"/>
+    </row>
+    <row r="41" spans="1:21" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="62"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="U41" s="62"/>
+    </row>
+    <row r="42" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="70"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="70"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="62"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="U42" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A28:I28"/>
+  <mergeCells count="8">
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A32:I32"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A19:I19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3717,7 +3890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D26FE-2532-E049-9F91-FE1ABDBCFEA0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3731,19 +3904,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="50"/>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3793,22 +3966,22 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73">
-        <v>1</v>
-      </c>
-      <c r="C4" s="73">
-        <v>10</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="73"/>
+      <c r="B4" s="64">
+        <v>1</v>
+      </c>
+      <c r="C4" s="64">
+        <v>10</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="64"/>
       <c r="H4" s="23" t="s">
         <v>145</v>
       </c>
@@ -3831,7 +4004,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="74"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -3844,43 +4017,43 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
-      <c r="K6" s="74"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:11" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="80"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="74"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="67">
         <v>2</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="77"/>
+      <c r="E8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="68"/>
       <c r="H8" s="23" t="s">
         <v>146</v>
       </c>
@@ -3893,25 +4066,25 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="67">
         <v>2</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="77"/>
+      <c r="E9" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="68"/>
       <c r="H9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3924,25 +4097,25 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="67">
         <v>3</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="77"/>
+      <c r="E10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="68"/>
       <c r="H10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3955,25 +4128,25 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="67">
         <v>3</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="77"/>
+      <c r="E11" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="68"/>
       <c r="H11" s="25" t="s">
         <v>152</v>
       </c>
@@ -3986,53 +4159,53 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="74"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="80"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="78"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="77">
-        <v>1</v>
-      </c>
-      <c r="C14" s="77">
-        <v>10</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="77"/>
+      <c r="B14" s="68">
+        <v>1</v>
+      </c>
+      <c r="C14" s="68">
+        <v>10</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="68"/>
       <c r="H14" s="23" t="s">
         <v>155</v>
       </c>
@@ -4045,25 +4218,25 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="77">
-        <v>1</v>
-      </c>
-      <c r="C15" s="77">
-        <v>10</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="76" t="s">
+      <c r="B15" s="68">
+        <v>1</v>
+      </c>
+      <c r="C15" s="68">
+        <v>10</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="77"/>
+      <c r="F15" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="68"/>
       <c r="H15" s="23" t="s">
         <v>158</v>
       </c>
@@ -4076,25 +4249,25 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="77">
-        <v>1</v>
-      </c>
-      <c r="C16" s="77">
-        <v>10</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="76" t="s">
+      <c r="B16" s="68">
+        <v>1</v>
+      </c>
+      <c r="C16" s="68">
+        <v>10</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="77"/>
+      <c r="F16" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="68"/>
       <c r="H16" s="23" t="s">
         <v>160</v>
       </c>
@@ -4107,25 +4280,25 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="77">
-        <v>1</v>
-      </c>
-      <c r="C17" s="77">
-        <v>10</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="76" t="s">
+      <c r="B17" s="68">
+        <v>1</v>
+      </c>
+      <c r="C17" s="68">
+        <v>10</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="77"/>
+      <c r="F17" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="68"/>
       <c r="H17" s="23" t="s">
         <v>162</v>
       </c>
@@ -4138,66 +4311,66 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="74"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="80"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="78"/>
+      <c r="K20" s="69"/>
     </row>
     <row r="21" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="77">
-        <v>1</v>
-      </c>
-      <c r="C21" s="77">
-        <v>10</v>
-      </c>
-      <c r="D21" s="76" t="s">
+      <c r="B21" s="68">
+        <v>1</v>
+      </c>
+      <c r="C21" s="68">
+        <v>10</v>
+      </c>
+      <c r="D21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="77"/>
+      <c r="E21" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="68"/>
       <c r="H21" s="23" t="s">
         <v>164</v>
       </c>
@@ -4209,25 +4382,25 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="77">
-        <v>1</v>
-      </c>
-      <c r="C22" s="77">
-        <v>10</v>
-      </c>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="68">
+        <v>1</v>
+      </c>
+      <c r="C22" s="68">
+        <v>10</v>
+      </c>
+      <c r="D22" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="77"/>
+      <c r="E22" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="68"/>
       <c r="H22" s="23" t="s">
         <v>158</v>
       </c>
@@ -4239,25 +4412,25 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="77">
-        <v>1</v>
-      </c>
-      <c r="C23" s="77">
-        <v>10</v>
-      </c>
-      <c r="D23" s="76" t="s">
+      <c r="B23" s="68">
+        <v>1</v>
+      </c>
+      <c r="C23" s="68">
+        <v>10</v>
+      </c>
+      <c r="D23" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="77"/>
+      <c r="E23" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="68"/>
       <c r="H23" s="23" t="s">
         <v>167</v>
       </c>
@@ -4269,25 +4442,25 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="77">
-        <v>1</v>
-      </c>
-      <c r="C24" s="77">
-        <v>10</v>
-      </c>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="68">
+        <v>1</v>
+      </c>
+      <c r="C24" s="68">
+        <v>10</v>
+      </c>
+      <c r="D24" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="77"/>
+      <c r="E24" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="68"/>
       <c r="H24" s="23" t="s">
         <v>43</v>
       </c>
@@ -4299,25 +4472,25 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="77">
-        <v>1</v>
-      </c>
-      <c r="C25" s="77">
-        <v>10</v>
-      </c>
-      <c r="D25" s="76" t="s">
+      <c r="B25" s="68">
+        <v>1</v>
+      </c>
+      <c r="C25" s="68">
+        <v>10</v>
+      </c>
+      <c r="D25" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="77"/>
+      <c r="E25" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="68"/>
       <c r="H25" s="23" t="s">
         <v>170</v>
       </c>
@@ -4329,25 +4502,25 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="77">
-        <v>1</v>
-      </c>
-      <c r="C26" s="77">
-        <v>10</v>
-      </c>
-      <c r="D26" s="76" t="s">
+      <c r="B26" s="68">
+        <v>1</v>
+      </c>
+      <c r="C26" s="68">
+        <v>10</v>
+      </c>
+      <c r="D26" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="77"/>
+      <c r="E26" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="68"/>
       <c r="H26" s="23" t="s">
         <v>173</v>
       </c>
@@ -4359,53 +4532,53 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="50"/>
-      <c r="K27" s="79"/>
+      <c r="K27" s="70"/>
     </row>
     <row r="28" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="80"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="79"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="77">
-        <v>1</v>
-      </c>
-      <c r="C29" s="77">
-        <v>10</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="76" t="s">
+      <c r="B29" s="68">
+        <v>1</v>
+      </c>
+      <c r="C29" s="68">
+        <v>10</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="77"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="23" t="s">
         <v>175</v>
       </c>
@@ -4417,25 +4590,25 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="77">
-        <v>1</v>
-      </c>
-      <c r="C30" s="77">
-        <v>10</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="76" t="s">
+      <c r="B30" s="68">
+        <v>1</v>
+      </c>
+      <c r="C30" s="68">
+        <v>10</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="77"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="23" t="s">
         <v>177</v>
       </c>
@@ -4447,25 +4620,25 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="77">
-        <v>1</v>
-      </c>
-      <c r="C31" s="77">
-        <v>10</v>
-      </c>
-      <c r="D31" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="76" t="s">
+      <c r="B31" s="68">
+        <v>1</v>
+      </c>
+      <c r="C31" s="68">
+        <v>10</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="77"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="23">
         <v>85</v>
       </c>
@@ -4477,25 +4650,25 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="77">
-        <v>1</v>
-      </c>
-      <c r="C32" s="77">
-        <v>10</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="76" t="s">
+      <c r="B32" s="68">
+        <v>1</v>
+      </c>
+      <c r="C32" s="68">
+        <v>10</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="77"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="23" t="s">
         <v>179</v>
       </c>
@@ -4507,25 +4680,25 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="77">
-        <v>1</v>
-      </c>
-      <c r="C33" s="77">
-        <v>10</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="76" t="s">
+      <c r="B33" s="68">
+        <v>1</v>
+      </c>
+      <c r="C33" s="68">
+        <v>10</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="77"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="23" t="s">
         <v>140</v>
       </c>
@@ -4537,25 +4710,25 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="77">
-        <v>1</v>
-      </c>
-      <c r="C34" s="77">
-        <v>10</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="76" t="s">
+      <c r="B34" s="68">
+        <v>1</v>
+      </c>
+      <c r="C34" s="68">
+        <v>10</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="77"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="23" t="s">
         <v>184</v>
       </c>
@@ -4598,24 +4771,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="72"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="61"/>
+      <c r="L1" s="77"/>
       <c r="N1" s="16" t="s">
         <v>42</v>
       </c>
@@ -4705,24 +4878,24 @@
       <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="60"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="47"/>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="12"/>
       <c r="N7" s="18"/>
     </row>
@@ -4880,24 +5053,24 @@
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="47"/>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="61"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="12"/>
       <c r="N13" s="21" t="s">
         <v>214</v>
@@ -5058,24 +5231,24 @@
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="60"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="47"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="61"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="12"/>
       <c r="N20" s="18"/>
     </row>
@@ -5299,24 +5472,24 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="60"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="61"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubensantos/Documents/GitHub/CR-22-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C888D47-55E5-9E42-B42D-1E14A69C3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDB271-2404-714D-83DD-081A5AA7140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="30240" windowHeight="21080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41100" yWindow="500" windowWidth="27540" windowHeight="21080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="276">
   <si>
     <t>Função de treino</t>
   </si>
@@ -177,19 +177,7 @@
     <t>75.43</t>
   </si>
   <si>
-    <t>79.57</t>
-  </si>
-  <si>
-    <t>78.29</t>
-  </si>
-  <si>
     <t>Valores Médios após 10 Execuções (Pasta 'train': 50 imagens p/ dígito)</t>
-  </si>
-  <si>
-    <t>40.27</t>
-  </si>
-  <si>
-    <t>37.81</t>
   </si>
   <si>
     <t>Performance Treino Média = 0.06
@@ -209,17 +197,6 @@
     <t>Performance prejudicada em relação ao teste anterior, porém os resultados obtidos foram muito melhores.
 Performance Treino Média = 0.04
 Performance Teste Média = 0.04</t>
-  </si>
-  <si>
-    <t>53.86</t>
-  </si>
-  <si>
-    <t>48.67</t>
-  </si>
-  <si>
-    <t>Menor tempo de execução comparado ao primeiro teste, porém influenciou na precisão. Devido ao maior número de camadas escondidas e de neuronios podemos obter melhores resultados que no primeiro teste.
-Performance Treino Média = 0.05
-Performance Teste Média = 0.05</t>
   </si>
   <si>
     <t>Tempo de execução elevado, porém resultados satisfatórios.
@@ -911,6 +888,32 @@
   </si>
   <si>
     <t>31.24</t>
+  </si>
+  <si>
+    <t>80.06</t>
+  </si>
+  <si>
+    <t>75.62</t>
+  </si>
+  <si>
+    <t>50.89</t>
+  </si>
+  <si>
+    <t>51.62</t>
+  </si>
+  <si>
+    <t>55.91</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>Menor tempo de execução comparado ao primeiro teste, porém influenciou na precisão. Devido ao maior número de camadas escondidas e de neuronios podemos obter melhores resultados que no primeiro teste.
+Performance Treino Média = 0.05
+Performance Teste Média = 0.06</t>
+  </si>
+  <si>
+    <t>Valores Médios após 10 Execuções (Pasta 'train1': 50 imagens p/ dígito)</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1484,17 +1487,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1923,7 +1920,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -1961,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1988,13 +1985,13 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2041,10 +2038,10 @@
         <v>60</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2068,13 +2065,13 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2098,13 +2095,13 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2128,13 +2125,13 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2175,13 +2172,13 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2205,13 +2202,13 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2235,13 +2232,13 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I16" s="24">
         <v>30</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2262,13 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2318,10 +2315,10 @@
         <v>90</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2345,13 +2342,13 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2378,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2408,10 +2405,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2441,7 +2438,7 @@
         <v>10</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2468,10 +2465,10 @@
         <v>43</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2512,13 +2509,13 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2542,13 +2539,13 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I30" s="24">
         <v>80</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2572,13 +2569,13 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2602,13 +2599,13 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I32" s="24">
         <v>45</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2632,13 +2629,13 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2665,10 +2662,10 @@
         <v>64</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2687,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2712,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -2789,13 +2786,13 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="10" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
@@ -2867,13 +2864,13 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
@@ -2904,13 +2901,13 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
@@ -2941,13 +2938,13 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="10" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="M10" s="59"/>
       <c r="N10" s="59"/>
@@ -2978,13 +2975,13 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M11" s="59"/>
       <c r="N11" s="59"/>
@@ -3017,7 +3014,7 @@
       <c r="H13" s="74"/>
       <c r="I13" s="75"/>
       <c r="K13" s="21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M13" s="59"/>
       <c r="N13" s="59"/>
@@ -3048,13 +3045,13 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59"/>
@@ -3085,13 +3082,13 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59"/>
@@ -3122,13 +3119,13 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
@@ -3159,13 +3156,13 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
@@ -3182,9 +3179,9 @@
       <c r="D18" s="7"/>
       <c r="E18" s="15"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="39"/>
       <c r="K18" s="30"/>
       <c r="M18" s="59"/>
       <c r="N18" s="59"/>
@@ -3196,7 +3193,7 @@
     </row>
     <row r="19" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -3205,7 +3202,7 @@
       <c r="F19" s="74"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="77"/>
       <c r="K19" s="30"/>
       <c r="M19" s="59"/>
       <c r="N19" s="59"/>
@@ -3232,17 +3229,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M20" s="59"/>
       <c r="N20" s="59"/>
@@ -3269,14 +3266,14 @@
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K21" s="30"/>
       <c r="M21" s="59"/>
@@ -3304,14 +3301,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K22" s="30"/>
       <c r="M22" s="59"/>
@@ -3374,10 +3371,10 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K25" s="30"/>
       <c r="M25" s="59"/>
@@ -3409,10 +3406,10 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K26" s="18"/>
       <c r="M26" s="59"/>
@@ -3444,10 +3441,10 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K27" s="18"/>
       <c r="M27" s="59"/>
@@ -3482,7 +3479,7 @@
         <v>43</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K28" s="18"/>
       <c r="M28" s="59"/>
@@ -3517,10 +3514,10 @@
         <v>11</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -3554,10 +3551,10 @@
         <v>9</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -3569,7 +3566,7 @@
     </row>
     <row r="31" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K31" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
@@ -3592,7 +3589,7 @@
       <c r="H32" s="74"/>
       <c r="I32" s="75"/>
       <c r="K32" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="59"/>
@@ -3623,13 +3620,13 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -3666,7 +3663,7 @@
         <v>45</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="59"/>
@@ -3700,7 +3697,7 @@
         <v>47</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K35" s="18"/>
       <c r="M35" s="59"/>
@@ -3732,10 +3729,10 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K36" s="37" t="s">
         <v>46</v>
@@ -3769,13 +3766,13 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
@@ -3806,13 +3803,13 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M38" s="59"/>
       <c r="N38" s="59"/>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="39" spans="1:21" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K39" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
@@ -3836,7 +3833,7 @@
     </row>
     <row r="40" spans="1:21" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K40" s="31" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
@@ -3848,7 +3845,7 @@
     </row>
     <row r="41" spans="1:21" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K41" s="31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M41" s="59"/>
       <c r="N41" s="59"/>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="42" spans="1:21" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K42" s="36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
@@ -3904,17 +3901,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
       <c r="J1" s="50"/>
       <c r="K1" s="63" t="s">
         <v>42</v>
@@ -3946,7 +3943,7 @@
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3983,14 +3980,14 @@
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I4" s="24">
         <v>70</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4030,7 +4027,7 @@
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="78"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="50"/>
       <c r="K7" s="65"/>
     </row>
@@ -4055,14 +4052,14 @@
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="23" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I8" s="24">
         <v>35</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4073,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D9" s="68" t="s">
         <v>21</v>
@@ -4086,14 +4083,14 @@
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J9" s="50"/>
       <c r="K9" s="34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4117,14 +4114,14 @@
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I10" s="24">
         <v>40</v>
       </c>
       <c r="J10" s="50"/>
       <c r="K10" s="34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -4148,14 +4145,14 @@
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="30" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
-      <c r="I13" s="78"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="50"/>
       <c r="K13" s="69"/>
     </row>
@@ -4207,14 +4204,14 @@
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="23" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4238,14 +4235,14 @@
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -4269,14 +4266,14 @@
       </c>
       <c r="G16" s="68"/>
       <c r="H16" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I16" s="24">
         <v>45</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -4300,14 +4297,14 @@
       </c>
       <c r="G17" s="68"/>
       <c r="H17" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J17" s="50"/>
       <c r="K17" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4347,7 +4344,7 @@
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="78"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="50"/>
       <c r="K20" s="69"/>
     </row>
@@ -4372,13 +4369,13 @@
       </c>
       <c r="G21" s="68"/>
       <c r="H21" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4402,13 +4399,13 @@
       </c>
       <c r="G22" s="68"/>
       <c r="H22" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I22" s="24">
         <v>25</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4432,13 +4429,13 @@
       </c>
       <c r="G23" s="68"/>
       <c r="H23" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4465,10 +4462,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4492,13 +4489,13 @@
       </c>
       <c r="G25" s="68"/>
       <c r="H25" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4522,13 +4519,13 @@
       </c>
       <c r="G26" s="68"/>
       <c r="H26" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4555,7 +4552,7 @@
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="50"/>
       <c r="K28" s="70"/>
     </row>
@@ -4580,13 +4577,13 @@
       </c>
       <c r="G29" s="68"/>
       <c r="H29" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4610,13 +4607,13 @@
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I30" s="24">
         <v>75</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4646,7 +4643,7 @@
         <v>75</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4670,13 +4667,13 @@
       </c>
       <c r="G32" s="68"/>
       <c r="H32" s="23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4700,13 +4697,13 @@
       </c>
       <c r="G33" s="68"/>
       <c r="H33" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4730,13 +4727,13 @@
       </c>
       <c r="G34" s="68"/>
       <c r="H34" s="23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +4769,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -4781,14 +4778,14 @@
       <c r="F1" s="72"/>
       <c r="G1" s="38"/>
       <c r="H1" s="72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I1" s="72"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="77"/>
+      <c r="K1" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="78"/>
       <c r="N1" s="16" t="s">
         <v>42</v>
       </c>
@@ -4851,20 +4848,20 @@
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="40" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J4" s="45"/>
       <c r="K4" s="51" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4888,14 +4885,14 @@
       <c r="F7" s="75"/>
       <c r="G7" s="47"/>
       <c r="H7" s="72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I7" s="72"/>
       <c r="J7" s="47"/>
-      <c r="K7" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="77"/>
+      <c r="K7" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="78"/>
       <c r="M7" s="12"/>
       <c r="N7" s="18"/>
     </row>
@@ -4920,17 +4917,17 @@
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J8" s="45"/>
       <c r="K8" s="53">
         <v>91</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="N8" s="19"/>
     </row>
@@ -4955,20 +4952,20 @@
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="53" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L9" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -4992,20 +4989,20 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="53" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -5029,20 +5026,20 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="40" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="53" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5063,17 +5060,17 @@
       <c r="F13" s="75"/>
       <c r="G13" s="47"/>
       <c r="H13" s="72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I13" s="72"/>
       <c r="J13" s="47"/>
-      <c r="K13" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="77"/>
+      <c r="K13" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="78"/>
       <c r="M13" s="12"/>
       <c r="N13" s="21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -5097,20 +5094,20 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="40" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="53" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L14" s="54">
         <v>4</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -5134,20 +5131,20 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="53" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5171,14 +5168,14 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="40" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J16" s="45"/>
       <c r="K16" s="53" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L16" s="54">
         <v>11</v>
@@ -5206,17 +5203,17 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="40" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J17" s="45"/>
       <c r="K17" s="53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L17" s="54" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N17" s="30"/>
     </row>
@@ -5241,14 +5238,14 @@
       <c r="F20" s="75"/>
       <c r="G20" s="47"/>
       <c r="H20" s="72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I20" s="72"/>
       <c r="J20" s="47"/>
-      <c r="K20" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="77"/>
+      <c r="K20" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="78"/>
       <c r="M20" s="12"/>
       <c r="N20" s="18"/>
     </row>
@@ -5273,17 +5270,17 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="55" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L21" s="56" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N21" s="20"/>
     </row>
@@ -5308,17 +5305,17 @@
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="42" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="55" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N22" s="20"/>
     </row>
@@ -5343,14 +5340,14 @@
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="42" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="55" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L23" s="56">
         <v>0</v>
@@ -5378,10 +5375,10 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="55">
@@ -5413,17 +5410,17 @@
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="55">
         <v>27</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="N25" s="20"/>
     </row>
@@ -5451,14 +5448,14 @@
         <v>10</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="55" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N26" s="20"/>
     </row>
@@ -5482,14 +5479,14 @@
       <c r="F28" s="75"/>
       <c r="G28" s="47"/>
       <c r="H28" s="72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I28" s="72"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="77"/>
+      <c r="K28" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="78"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5513,17 +5510,17 @@
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="42" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="55">
         <v>89</v>
       </c>
       <c r="L29" s="56" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N29" s="31"/>
     </row>
@@ -5548,14 +5545,14 @@
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="42" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="55" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L30" s="56">
         <v>8</v>
@@ -5583,14 +5580,14 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I31" s="5">
         <v>87</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="55" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" s="56">
         <v>12</v>
@@ -5618,17 +5615,17 @@
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="42" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="55" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L32" s="56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N32" s="31"/>
     </row>
@@ -5653,17 +5650,17 @@
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="42" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="55" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L33" s="56" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N33" s="31"/>
     </row>
@@ -5688,17 +5685,17 @@
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="55" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L34" s="56" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N34" s="36"/>
     </row>
